--- a/raw_data/20200818_saline/20200818_Sensor0_Test_5.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_5.xlsx
@@ -1,553 +1,969 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB76060-F22B-457D-A0ED-1C4C49CBED75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>3602.869007</v>
+        <v>3602.8690069999998</v>
       </c>
       <c r="B2" s="1">
-        <v>1.000797</v>
+        <v>1.0007969999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>898.438000</v>
+        <v>898.43799999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-190.110000</v>
+        <v>-190.11</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>3613.299376</v>
+        <v>3613.2993759999999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.003694</v>
+        <v>1.0036940000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>916.050000</v>
+        <v>916.05</v>
       </c>
       <c r="I2" s="1">
-        <v>-162.254000</v>
+        <v>-162.25399999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>3623.770420</v>
+        <v>3623.7704199999998</v>
       </c>
       <c r="L2" s="1">
-        <v>1.006603</v>
+        <v>1.0066029999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>939.093000</v>
+        <v>939.09299999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.526000</v>
+        <v>-117.526</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>3634.576261</v>
+        <v>3634.5762610000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.009605</v>
+        <v>1.0096050000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>946.055000</v>
+        <v>946.05499999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.560000</v>
+        <v>-102.56</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>3645.460472</v>
+        <v>3645.4604720000002</v>
       </c>
       <c r="V2" s="1">
-        <v>1.012628</v>
+        <v>1.0126280000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>952.918000</v>
+        <v>952.91800000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.245900</v>
+        <v>-89.245900000000006</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>3655.878968</v>
@@ -556,118 +972,118 @@
         <v>1.015522</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.351000</v>
+        <v>960.351</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.913800</v>
+        <v>-79.913799999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>3666.433803</v>
+        <v>3666.4338029999999</v>
       </c>
       <c r="AF2" s="1">
         <v>1.018454</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.550000</v>
+        <v>965.55</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.355300</v>
+        <v>-79.3553</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>3677.181116</v>
+        <v>3677.1811160000002</v>
       </c>
       <c r="AK2" s="1">
         <v>1.021439</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.614000</v>
+        <v>973.61400000000003</v>
       </c>
       <c r="AM2" s="1">
-        <v>-86.919700</v>
+        <v>-86.919700000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>3687.761774</v>
+        <v>3687.7617740000001</v>
       </c>
       <c r="AP2" s="1">
         <v>1.024378</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.878000</v>
+        <v>982.87800000000004</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.495000</v>
+        <v>-101.495</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>3698.161393</v>
+        <v>3698.1613929999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>1.027267</v>
+        <v>1.0272669999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.255000</v>
+        <v>994.255</v>
       </c>
       <c r="AW2" s="1">
-        <v>-122.594000</v>
+        <v>-122.59399999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>3709.311986</v>
+        <v>3709.3119860000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1.030364</v>
+        <v>1.0303640000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB2" s="1">
-        <v>-140.927000</v>
+        <v>-140.92699999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>3719.846980</v>
+        <v>3719.8469799999998</v>
       </c>
       <c r="BE2" s="1">
         <v>1.033291</v>
       </c>
       <c r="BF2" s="1">
-        <v>1048.520000</v>
+        <v>1048.52</v>
       </c>
       <c r="BG2" s="1">
-        <v>-223.968000</v>
+        <v>-223.96799999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>3730.546182</v>
       </c>
       <c r="BJ2" s="1">
-        <v>1.036263</v>
+        <v>1.0362629999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1126.460000</v>
+        <v>1126.46</v>
       </c>
       <c r="BL2" s="1">
-        <v>-357.459000</v>
+        <v>-357.459</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>3741.311886</v>
@@ -676,120 +1092,120 @@
         <v>1.039253</v>
       </c>
       <c r="BP2" s="1">
-        <v>1255.500000</v>
+        <v>1255.5</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-564.319000</v>
+        <v>-564.31899999999996</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>3751.956532</v>
+        <v>3751.9565320000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>1.042210</v>
+        <v>1.0422100000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1400.560000</v>
+        <v>1400.56</v>
       </c>
       <c r="BV2" s="1">
-        <v>-785.284000</v>
+        <v>-785.28399999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>3762.368507</v>
+        <v>3762.3685070000001</v>
       </c>
       <c r="BY2" s="1">
         <v>1.045102</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1560.870000</v>
+        <v>1560.87</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1015.590000</v>
+        <v>-1015.59</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>3773.271070</v>
+        <v>3773.2710699999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>1.048131</v>
+        <v>1.0481309999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1965.680000</v>
+        <v>1965.68</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1552.390000</v>
+        <v>-1552.39</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>3603.273246</v>
+        <v>3603.2732460000002</v>
       </c>
       <c r="B3" s="1">
         <v>1.000909</v>
       </c>
       <c r="C3" s="1">
-        <v>898.388000</v>
+        <v>898.38800000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>-190.279000</v>
+        <v>-190.279</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>3614.025024</v>
       </c>
       <c r="G3" s="1">
-        <v>1.003896</v>
+        <v>1.0038959999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>915.943000</v>
+        <v>915.94299999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-162.271000</v>
+        <v>-162.27099999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>3624.492595</v>
+        <v>3624.4925950000002</v>
       </c>
       <c r="L3" s="1">
-        <v>1.006803</v>
+        <v>1.0068029999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>939.020000</v>
+        <v>939.02</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.347000</v>
+        <v>-117.34699999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>3634.926964</v>
+        <v>3634.9269640000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.009702</v>
+        <v>1.0097020000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>946.073000</v>
+        <v>946.07299999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.540000</v>
+        <v>-102.54</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>3645.806677</v>
@@ -798,28 +1214,28 @@
         <v>1.012724</v>
       </c>
       <c r="W3" s="1">
-        <v>952.855000</v>
+        <v>952.85500000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.184900</v>
+        <v>-89.184899999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>3656.230104</v>
+        <v>3656.2301040000002</v>
       </c>
       <c r="AA3" s="1">
         <v>1.015619</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.436000</v>
+        <v>960.43600000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.915200</v>
+        <v>-79.915199999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>3667.111339</v>
@@ -828,58 +1244,58 @@
         <v>1.018642</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.562000</v>
+        <v>965.56200000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.362100</v>
+        <v>-79.362099999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>3677.608172</v>
+        <v>3677.6081720000002</v>
       </c>
       <c r="AK3" s="1">
         <v>1.021558</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.620000</v>
+        <v>973.62</v>
       </c>
       <c r="AM3" s="1">
-        <v>-86.888600</v>
+        <v>-86.888599999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>3688.210158</v>
+        <v>3688.2101579999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>1.024503</v>
+        <v>1.0245029999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.857000</v>
+        <v>982.85699999999997</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.514000</v>
+        <v>-101.514</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>3698.545793</v>
+        <v>3698.5457929999998</v>
       </c>
       <c r="AU3" s="1">
         <v>1.027374</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.264000</v>
+        <v>994.26400000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-122.603000</v>
+        <v>-122.60299999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>3709.671272</v>
@@ -888,150 +1304,150 @@
         <v>1.030464</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.810000</v>
+        <v>1003.81</v>
       </c>
       <c r="BB3" s="1">
-        <v>-140.955000</v>
+        <v>-140.95500000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>3720.246755</v>
+        <v>3720.2467550000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>1.033402</v>
+        <v>1.0334019999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1048.510000</v>
+        <v>1048.51</v>
       </c>
       <c r="BG3" s="1">
-        <v>-223.941000</v>
+        <v>-223.941</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>3730.959387</v>
+        <v>3730.9593869999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>1.036378</v>
       </c>
       <c r="BK3" s="1">
-        <v>1126.480000</v>
+        <v>1126.48</v>
       </c>
       <c r="BL3" s="1">
-        <v>-357.468000</v>
+        <v>-357.46800000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>3741.758743</v>
+        <v>3741.7587429999999</v>
       </c>
       <c r="BO3" s="1">
         <v>1.039377</v>
       </c>
       <c r="BP3" s="1">
-        <v>1255.490000</v>
+        <v>1255.49</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-564.322000</v>
+        <v>-564.322</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>3752.114714</v>
+        <v>3752.1147139999998</v>
       </c>
       <c r="BT3" s="1">
         <v>1.042254</v>
       </c>
       <c r="BU3" s="1">
-        <v>1400.590000</v>
+        <v>1400.59</v>
       </c>
       <c r="BV3" s="1">
-        <v>-785.153000</v>
+        <v>-785.15300000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>3762.854588</v>
+        <v>3762.8545880000001</v>
       </c>
       <c r="BY3" s="1">
         <v>1.045237</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1560.630000</v>
+        <v>1560.63</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1015.640000</v>
+        <v>-1015.64</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>3773.848910</v>
+        <v>3773.8489100000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>1.048291</v>
+        <v>1.0482910000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1963.730000</v>
+        <v>1963.73</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1552.900000</v>
+        <v>-1552.9</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>3603.956765</v>
+        <v>3603.9567649999999</v>
       </c>
       <c r="B4" s="1">
         <v>1.001099</v>
       </c>
       <c r="C4" s="1">
-        <v>898.321000</v>
+        <v>898.32100000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>-190.143000</v>
+        <v>-190.143</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>3614.371727</v>
+        <v>3614.3717270000002</v>
       </c>
       <c r="G4" s="1">
         <v>1.003992</v>
       </c>
       <c r="H4" s="1">
-        <v>915.988000</v>
+        <v>915.98800000000006</v>
       </c>
       <c r="I4" s="1">
-        <v>-162.362000</v>
+        <v>-162.36199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>3624.904273</v>
+        <v>3624.9042730000001</v>
       </c>
       <c r="L4" s="1">
         <v>1.006918</v>
       </c>
       <c r="M4" s="1">
-        <v>939.197000</v>
+        <v>939.197</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.523000</v>
+        <v>-117.523</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>3635.272148</v>
@@ -1040,73 +1456,73 @@
         <v>1.009798</v>
       </c>
       <c r="R4" s="1">
-        <v>946.096000</v>
+        <v>946.096</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.586000</v>
+        <v>-102.586</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>3646.460221</v>
+        <v>3646.4602209999998</v>
       </c>
       <c r="V4" s="1">
-        <v>1.012906</v>
+        <v>1.0129060000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>952.856000</v>
+        <v>952.85599999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.209200</v>
+        <v>-89.209199999999996</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>3656.882866</v>
+        <v>3656.8828659999999</v>
       </c>
       <c r="AA4" s="1">
         <v>1.015801</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.499000</v>
+        <v>960.49900000000002</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.961500</v>
+        <v>-79.961500000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>3667.497754</v>
       </c>
       <c r="AF4" s="1">
-        <v>1.018749</v>
+        <v>1.0187489999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.590000</v>
+        <v>965.59</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.388400</v>
+        <v>-79.388400000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>3677.956363</v>
+        <v>3677.9563629999998</v>
       </c>
       <c r="AK4" s="1">
         <v>1.021655</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.607000</v>
+        <v>973.60699999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-86.908500</v>
+        <v>-86.908500000000004</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>3688.568765</v>
@@ -1115,136 +1531,136 @@
         <v>1.024602</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.856000</v>
+        <v>982.85599999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.525000</v>
+        <v>-101.52500000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>3698.907903</v>
+        <v>3698.9079029999998</v>
       </c>
       <c r="AU4" s="1">
         <v>1.027474</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.246000</v>
+        <v>994.24599999999998</v>
       </c>
       <c r="AW4" s="1">
-        <v>-122.583000</v>
+        <v>-122.583</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>3710.093649</v>
+        <v>3710.0936489999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1.030582</v>
+        <v>1.0305820000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.850000</v>
+        <v>1003.85</v>
       </c>
       <c r="BB4" s="1">
-        <v>-140.932000</v>
+        <v>-140.93199999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>3720.670195</v>
+        <v>3720.6701950000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>1.033519</v>
+        <v>1.0335190000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1048.510000</v>
+        <v>1048.51</v>
       </c>
       <c r="BG4" s="1">
-        <v>-223.965000</v>
+        <v>-223.965</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>3731.334325</v>
+        <v>3731.3343249999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>1.036482</v>
+        <v>1.0364819999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1126.470000</v>
+        <v>1126.47</v>
       </c>
       <c r="BL4" s="1">
-        <v>-357.472000</v>
+        <v>-357.47199999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>3742.157527</v>
+        <v>3742.1575269999998</v>
       </c>
       <c r="BO4" s="1">
         <v>1.039488</v>
       </c>
       <c r="BP4" s="1">
-        <v>1255.550000</v>
+        <v>1255.55</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-564.354000</v>
+        <v>-564.35400000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>3752.526393</v>
+        <v>3752.5263930000001</v>
       </c>
       <c r="BT4" s="1">
         <v>1.042368</v>
       </c>
       <c r="BU4" s="1">
-        <v>1400.650000</v>
+        <v>1400.65</v>
       </c>
       <c r="BV4" s="1">
-        <v>-785.162000</v>
+        <v>-785.16200000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>3763.302474</v>
+        <v>3763.3024740000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>1.045362</v>
+        <v>1.0453619999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1560.700000</v>
+        <v>1560.7</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1015.530000</v>
+        <v>-1015.53</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>3774.379629</v>
       </c>
       <c r="CD4" s="1">
-        <v>1.048439</v>
+        <v>1.0484389999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1965.130000</v>
+        <v>1965.13</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1552.900000</v>
+        <v>-1552.9</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>3604.304924</v>
       </c>
@@ -1252,133 +1668,133 @@
         <v>1.001196</v>
       </c>
       <c r="C5" s="1">
-        <v>898.506000</v>
+        <v>898.50599999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-190.138000</v>
+        <v>-190.13800000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>3614.716943</v>
+        <v>3614.7169429999999</v>
       </c>
       <c r="G5" s="1">
-        <v>1.004088</v>
+        <v>1.0040880000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>915.930000</v>
+        <v>915.93</v>
       </c>
       <c r="I5" s="1">
-        <v>-162.503000</v>
+        <v>-162.50299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>3625.498977</v>
+        <v>3625.4989770000002</v>
       </c>
       <c r="L5" s="1">
         <v>1.007083</v>
       </c>
       <c r="M5" s="1">
-        <v>939.158000</v>
+        <v>939.15800000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.282000</v>
+        <v>-117.282</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>3635.933347</v>
+        <v>3635.9333470000001</v>
       </c>
       <c r="Q5" s="1">
         <v>1.009981</v>
       </c>
       <c r="R5" s="1">
-        <v>946.107000</v>
+        <v>946.10699999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.592000</v>
+        <v>-102.592</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>3646.836373</v>
+        <v>3646.8363730000001</v>
       </c>
       <c r="V5" s="1">
-        <v>1.013010</v>
+        <v>1.01301</v>
       </c>
       <c r="W5" s="1">
-        <v>952.923000</v>
+        <v>952.923</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.214000</v>
+        <v>-89.213999999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>3657.278646</v>
+        <v>3657.2786460000002</v>
       </c>
       <c r="AA5" s="1">
         <v>1.015911</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.446000</v>
+        <v>960.44600000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.807800</v>
+        <v>-79.8078</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>3667.841945</v>
+        <v>3667.8419450000001</v>
       </c>
       <c r="AF5" s="1">
         <v>1.018845</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.537000</v>
+        <v>965.53700000000003</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.369700</v>
+        <v>-79.369699999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>3678.310011</v>
       </c>
       <c r="AK5" s="1">
-        <v>1.021753</v>
+        <v>1.0217529999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.613000</v>
+        <v>973.61300000000006</v>
       </c>
       <c r="AM5" s="1">
-        <v>-86.924600</v>
+        <v>-86.924599999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>3688.929389</v>
+        <v>3688.9293889999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>1.024703</v>
+        <v>1.0247029999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.869000</v>
+        <v>982.86900000000003</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.522000</v>
+        <v>-101.52200000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>3699.335423</v>
@@ -1387,43 +1803,43 @@
         <v>1.027593</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.243000</v>
+        <v>994.24300000000005</v>
       </c>
       <c r="AW5" s="1">
-        <v>-122.591000</v>
+        <v>-122.59099999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>3710.382816</v>
+        <v>3710.3828159999998</v>
       </c>
       <c r="AZ5" s="1">
         <v>1.030662</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB5" s="1">
-        <v>-140.953000</v>
+        <v>-140.953</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>3720.968930</v>
+        <v>3720.96893</v>
       </c>
       <c r="BE5" s="1">
-        <v>1.033602</v>
+        <v>1.0336019999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG5" s="1">
-        <v>-223.985000</v>
+        <v>-223.98500000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>3731.711284</v>
@@ -1432,43 +1848,43 @@
         <v>1.036586</v>
       </c>
       <c r="BK5" s="1">
-        <v>1126.460000</v>
+        <v>1126.46</v>
       </c>
       <c r="BL5" s="1">
-        <v>-357.461000</v>
+        <v>-357.46100000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>3742.554327</v>
+        <v>3742.5543269999998</v>
       </c>
       <c r="BO5" s="1">
         <v>1.039598</v>
       </c>
       <c r="BP5" s="1">
-        <v>1255.510000</v>
+        <v>1255.51</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-564.322000</v>
+        <v>-564.322</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>3752.960888</v>
+        <v>3752.9608880000001</v>
       </c>
       <c r="BT5" s="1">
         <v>1.042489</v>
       </c>
       <c r="BU5" s="1">
-        <v>1400.770000</v>
+        <v>1400.77</v>
       </c>
       <c r="BV5" s="1">
-        <v>-785.089000</v>
+        <v>-785.08900000000006</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>3763.723082</v>
@@ -1477,13 +1893,13 @@
         <v>1.045479</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1560.600000</v>
+        <v>1560.6</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1015.650000</v>
+        <v>-1015.65</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>3774.898443</v>
@@ -1492,150 +1908,150 @@
         <v>1.048583</v>
       </c>
       <c r="CE5" s="1">
-        <v>1964.420000</v>
+        <v>1964.42</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1551.240000</v>
+        <v>-1551.24</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>3604.644719</v>
+        <v>3604.6447189999999</v>
       </c>
       <c r="B6" s="1">
-        <v>1.001290</v>
+        <v>1.00129</v>
       </c>
       <c r="C6" s="1">
-        <v>898.317000</v>
+        <v>898.31700000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-190.335000</v>
+        <v>-190.33500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>3615.361246</v>
+        <v>3615.3612459999999</v>
       </c>
       <c r="G6" s="1">
         <v>1.004267</v>
       </c>
       <c r="H6" s="1">
-        <v>915.714000</v>
+        <v>915.71400000000006</v>
       </c>
       <c r="I6" s="1">
-        <v>-162.362000</v>
+        <v>-162.36199999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>3625.874485</v>
+        <v>3625.8744849999998</v>
       </c>
       <c r="L6" s="1">
-        <v>1.007187</v>
+        <v>1.0071870000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>939.201000</v>
+        <v>939.20100000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.459000</v>
+        <v>-117.459</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>3636.319700</v>
+        <v>3636.3197</v>
       </c>
       <c r="Q6" s="1">
         <v>1.010089</v>
       </c>
       <c r="R6" s="1">
-        <v>946.071000</v>
+        <v>946.07100000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.606000</v>
+        <v>-102.60599999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>3647.179631</v>
       </c>
       <c r="V6" s="1">
-        <v>1.013105</v>
+        <v>1.0131049999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>952.901000</v>
+        <v>952.90099999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.220700</v>
+        <v>-89.220699999999994</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>3657.624856</v>
+        <v>3657.6248559999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.016007</v>
+        <v>1.0160070000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.435000</v>
+        <v>960.43499999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.901500</v>
+        <v>-79.901499999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>3668.180712</v>
+        <v>3668.1807119999999</v>
       </c>
       <c r="AF6" s="1">
         <v>1.018939</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.523000</v>
+        <v>965.52300000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.384600</v>
+        <v>-79.384600000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>3678.727146</v>
+        <v>3678.7271460000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>1.021869</v>
+        <v>1.0218689999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.625000</v>
+        <v>973.625</v>
       </c>
       <c r="AM6" s="1">
-        <v>-86.906400</v>
+        <v>-86.906400000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>3689.357404</v>
+        <v>3689.3574039999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>1.024822</v>
+        <v>1.0248219999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.860000</v>
+        <v>982.86</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.521000</v>
+        <v>-101.521</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>3699.637518</v>
@@ -1644,180 +2060,180 @@
         <v>1.027677</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.264000</v>
+        <v>994.26400000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-122.610000</v>
+        <v>-122.61</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>3710.749856</v>
+        <v>3710.7498559999999</v>
       </c>
       <c r="AZ6" s="1">
         <v>1.030764</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB6" s="1">
-        <v>-140.949000</v>
+        <v>-140.94900000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>3721.329026</v>
+        <v>3721.3290259999999</v>
       </c>
       <c r="BE6" s="1">
         <v>1.033703</v>
       </c>
       <c r="BF6" s="1">
-        <v>1048.510000</v>
+        <v>1048.51</v>
       </c>
       <c r="BG6" s="1">
-        <v>-223.948000</v>
+        <v>-223.94800000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>3732.084277</v>
+        <v>3732.0842769999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>1.036690</v>
+        <v>1.0366899999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1126.450000</v>
+        <v>1126.45</v>
       </c>
       <c r="BL6" s="1">
-        <v>-357.484000</v>
+        <v>-357.48399999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>3742.974933</v>
       </c>
       <c r="BO6" s="1">
-        <v>1.039715</v>
+        <v>1.0397149999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1255.500000</v>
+        <v>1255.5</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-564.326000</v>
+        <v>-564.32600000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>3753.388968</v>
+        <v>3753.3889680000002</v>
       </c>
       <c r="BT6" s="1">
         <v>1.042608</v>
       </c>
       <c r="BU6" s="1">
-        <v>1400.910000</v>
+        <v>1400.91</v>
       </c>
       <c r="BV6" s="1">
-        <v>-784.979000</v>
+        <v>-784.97900000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>3764.146665</v>
+        <v>3764.1466650000002</v>
       </c>
       <c r="BY6" s="1">
         <v>1.045596</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1560.790000</v>
+        <v>1560.79</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1015.740000</v>
+        <v>-1015.74</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>3775.438090</v>
+        <v>3775.4380900000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>1.048733</v>
+        <v>1.0487329999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1963.930000</v>
+        <v>1963.93</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1553.340000</v>
+        <v>-1553.34</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>3605.297419</v>
       </c>
       <c r="B7" s="1">
-        <v>1.001472</v>
+        <v>1.0014719999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>898.474000</v>
+        <v>898.47400000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-190.216000</v>
+        <v>-190.21600000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>3615.750144</v>
+        <v>3615.7501440000001</v>
       </c>
       <c r="G7" s="1">
         <v>1.004375</v>
       </c>
       <c r="H7" s="1">
-        <v>915.799000</v>
+        <v>915.79899999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-162.258000</v>
+        <v>-162.25800000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>3626.222144</v>
+        <v>3626.2221439999998</v>
       </c>
       <c r="L7" s="1">
-        <v>1.007284</v>
+        <v>1.0072840000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>939.279000</v>
+        <v>939.279</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.233000</v>
+        <v>-117.233</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>3636.664419</v>
+        <v>3636.6644190000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.010185</v>
+        <v>1.0101850000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>946.040000</v>
+        <v>946.04</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.595000</v>
+        <v>-102.595</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>3647.523827</v>
@@ -1826,58 +2242,58 @@
         <v>1.013201</v>
       </c>
       <c r="W7" s="1">
-        <v>952.854000</v>
+        <v>952.85400000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.139000</v>
+        <v>-89.138999999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>3657.972058</v>
+        <v>3657.9720579999998</v>
       </c>
       <c r="AA7" s="1">
         <v>1.016103</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.385000</v>
+        <v>960.38499999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.922400</v>
+        <v>-79.922399999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>3668.594377</v>
+        <v>3668.5943769999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.019054</v>
+        <v>1.0190539999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.547000</v>
+        <v>965.54700000000003</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.352700</v>
+        <v>-79.352699999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>3679.016809</v>
+        <v>3679.0168090000002</v>
       </c>
       <c r="AK7" s="1">
         <v>1.021949</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.630000</v>
+        <v>973.63</v>
       </c>
       <c r="AM7" s="1">
-        <v>-86.933600</v>
+        <v>-86.933599999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>3689.647563</v>
@@ -1886,103 +2302,103 @@
         <v>1.024902</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.889000</v>
+        <v>982.88900000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.523000</v>
+        <v>-101.523</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>3700.004030</v>
+        <v>3700.0040300000001</v>
       </c>
       <c r="AU7" s="1">
         <v>1.027779</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.244000</v>
+        <v>994.24400000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-122.605000</v>
+        <v>-122.605</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>3711.107973</v>
+        <v>3711.1079730000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1.030863</v>
+        <v>1.0308630000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.790000</v>
+        <v>1003.79</v>
       </c>
       <c r="BB7" s="1">
-        <v>-140.932000</v>
+        <v>-140.93199999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>3721.691640</v>
+        <v>3721.69164</v>
       </c>
       <c r="BE7" s="1">
         <v>1.033803</v>
       </c>
       <c r="BF7" s="1">
-        <v>1048.530000</v>
+        <v>1048.53</v>
       </c>
       <c r="BG7" s="1">
-        <v>-223.969000</v>
+        <v>-223.96899999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>3732.853570</v>
+        <v>3732.8535700000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>1.036904</v>
       </c>
       <c r="BK7" s="1">
-        <v>1126.460000</v>
+        <v>1126.46</v>
       </c>
       <c r="BL7" s="1">
-        <v>-357.473000</v>
+        <v>-357.47300000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>3743.373221</v>
+        <v>3743.3732209999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>1.039826</v>
+        <v>1.0398259999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1255.520000</v>
+        <v>1255.52</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-564.345000</v>
+        <v>-564.34500000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>3753.801143</v>
+        <v>3753.8011430000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>1.042723</v>
+        <v>1.0427230000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1400.950000</v>
+        <v>1400.95</v>
       </c>
       <c r="BV7" s="1">
-        <v>-785.001000</v>
+        <v>-785.00099999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>3764.571254</v>
@@ -1991,135 +2407,135 @@
         <v>1.045714</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1560.750000</v>
+        <v>1560.75</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1015.670000</v>
+        <v>-1015.67</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>3776.290714</v>
+        <v>3776.2907140000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>1.048970</v>
+        <v>1.04897</v>
       </c>
       <c r="CE7" s="1">
-        <v>1963.690000</v>
+        <v>1963.69</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1551.490000</v>
+        <v>-1551.49</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>3605.670443</v>
       </c>
       <c r="B8" s="1">
-        <v>1.001575</v>
+        <v>1.0015750000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>898.344000</v>
+        <v>898.34400000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-190.427000</v>
+        <v>-190.42699999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>3616.092876</v>
+        <v>3616.0928760000002</v>
       </c>
       <c r="G8" s="1">
-        <v>1.004470</v>
+        <v>1.00447</v>
       </c>
       <c r="H8" s="1">
-        <v>915.969000</v>
+        <v>915.96900000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-162.572000</v>
+        <v>-162.572</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>3626.569839</v>
+        <v>3626.5698389999998</v>
       </c>
       <c r="L8" s="1">
-        <v>1.007381</v>
+        <v>1.0073810000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>939.059000</v>
+        <v>939.05899999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.424000</v>
+        <v>-117.42400000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>3637.016577</v>
+        <v>3637.0165769999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.010282</v>
+        <v>1.0102819999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>946.054000</v>
+        <v>946.05399999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.583000</v>
+        <v>-102.583</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>3647.943449</v>
+        <v>3647.9434489999999</v>
       </c>
       <c r="V8" s="1">
-        <v>1.013318</v>
+        <v>1.0133179999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>952.861000</v>
+        <v>952.86099999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.225900</v>
+        <v>-89.225899999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>3658.422950</v>
+        <v>3658.4229500000001</v>
       </c>
       <c r="AA8" s="1">
         <v>1.016229</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.464000</v>
+        <v>960.46400000000006</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.785200</v>
+        <v>-79.785200000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>3668.873128</v>
+        <v>3668.8731280000002</v>
       </c>
       <c r="AF8" s="1">
         <v>1.019131</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.537000</v>
+        <v>965.53700000000003</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.385500</v>
+        <v>-79.385499999999993</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>3679.366489</v>
@@ -2128,133 +2544,133 @@
         <v>1.022046</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.622000</v>
+        <v>973.62199999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-86.897900</v>
+        <v>-86.897900000000007</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>3690.009147</v>
+        <v>3690.0091470000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>1.025003</v>
+        <v>1.0250030000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.886000</v>
+        <v>982.88599999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.525000</v>
+        <v>-101.52500000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>3700.369085</v>
+        <v>3700.3690849999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>1.027880</v>
+        <v>1.0278799999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.254000</v>
+        <v>994.25400000000002</v>
       </c>
       <c r="AW8" s="1">
-        <v>-122.595000</v>
+        <v>-122.595</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>3711.824687</v>
+        <v>3711.8246869999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1.031062</v>
+        <v>1.0310619999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB8" s="1">
-        <v>-140.925000</v>
+        <v>-140.92500000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>3722.413280</v>
+        <v>3722.4132800000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>1.034004</v>
+        <v>1.0340039999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1048.530000</v>
+        <v>1048.53</v>
       </c>
       <c r="BG8" s="1">
-        <v>-223.983000</v>
+        <v>-223.983</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>3733.227587</v>
+        <v>3733.2275869999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>1.037008</v>
+        <v>1.0370079999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1126.460000</v>
+        <v>1126.46</v>
       </c>
       <c r="BL8" s="1">
-        <v>-357.498000</v>
+        <v>-357.49799999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>3743.792836</v>
+        <v>3743.7928360000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.039942</v>
+        <v>1.0399419999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1255.500000</v>
+        <v>1255.5</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-564.318000</v>
+        <v>-564.31799999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>3754.231638</v>
+        <v>3754.2316380000002</v>
       </c>
       <c r="BT8" s="1">
         <v>1.042842</v>
       </c>
       <c r="BU8" s="1">
-        <v>1401.120000</v>
+        <v>1401.12</v>
       </c>
       <c r="BV8" s="1">
-        <v>-785.043000</v>
+        <v>-785.04300000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>3765.294935</v>
+        <v>3765.2949349999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>1.045915</v>
+        <v>1.0459149999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1560.710000</v>
+        <v>1560.71</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1015.610000</v>
+        <v>-1015.61</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>3776.516889</v>
@@ -2263,210 +2679,210 @@
         <v>1.049032</v>
       </c>
       <c r="CE8" s="1">
-        <v>1963.730000</v>
+        <v>1963.73</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1551.380000</v>
+        <v>-1551.38</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>3606.015626</v>
+        <v>3606.0156259999999</v>
       </c>
       <c r="B9" s="1">
         <v>1.001671</v>
       </c>
       <c r="C9" s="1">
-        <v>898.483000</v>
+        <v>898.48299999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>-190.221000</v>
+        <v>-190.221</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>3616.437068</v>
+        <v>3616.4370680000002</v>
       </c>
       <c r="G9" s="1">
-        <v>1.004566</v>
+        <v>1.0045660000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>915.725000</v>
+        <v>915.72500000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-162.378000</v>
+        <v>-162.37799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>3626.988490</v>
+        <v>3626.9884900000002</v>
       </c>
       <c r="L9" s="1">
-        <v>1.007497</v>
+        <v>1.0074970000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>939.271000</v>
+        <v>939.27099999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.489000</v>
+        <v>-117.489</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>3637.425317</v>
+        <v>3637.4253170000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.010396</v>
+        <v>1.0103960000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>946.081000</v>
+        <v>946.08100000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.577000</v>
+        <v>-102.577</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>3648.220740</v>
+        <v>3648.2207400000002</v>
       </c>
       <c r="V9" s="1">
         <v>1.013395</v>
       </c>
       <c r="W9" s="1">
-        <v>952.905000</v>
+        <v>952.90499999999997</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.146700</v>
+        <v>-89.146699999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>3658.704677</v>
+        <v>3658.7046770000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>1.016307</v>
+        <v>1.0163070000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.372000</v>
+        <v>960.37199999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.902800</v>
+        <v>-79.902799999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>3669.218375</v>
+        <v>3669.2183749999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>1.019227</v>
+        <v>1.0192270000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.552000</v>
+        <v>965.55200000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.377200</v>
+        <v>-79.377200000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>3679.716169</v>
+        <v>3679.7161689999998</v>
       </c>
       <c r="AK9" s="1">
         <v>1.022143</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.616000</v>
+        <v>973.61599999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-86.897100</v>
+        <v>-86.897099999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>3690.371265</v>
+        <v>3690.3712650000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.025103</v>
+        <v>1.0251030000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.878000</v>
+        <v>982.87800000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.508000</v>
+        <v>-101.508</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>3701.102669</v>
+        <v>3701.1026689999999</v>
       </c>
       <c r="AU9" s="1">
         <v>1.028084</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.247000</v>
+        <v>994.24699999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-122.619000</v>
+        <v>-122.619</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>3712.183332</v>
+        <v>3712.1833320000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>1.031162</v>
+        <v>1.0311619999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB9" s="1">
-        <v>-140.948000</v>
+        <v>-140.94800000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>3722.803362</v>
+        <v>3722.8033620000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>1.034112</v>
+        <v>1.0341119999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1048.530000</v>
+        <v>1048.53</v>
       </c>
       <c r="BG9" s="1">
-        <v>-223.979000</v>
+        <v>-223.97900000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>3733.606001</v>
+        <v>3733.6060010000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>1.037113</v>
       </c>
       <c r="BK9" s="1">
-        <v>1126.460000</v>
+        <v>1126.46</v>
       </c>
       <c r="BL9" s="1">
-        <v>-357.470000</v>
+        <v>-357.47</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>3744.497652</v>
@@ -2475,285 +2891,285 @@
         <v>1.040138</v>
       </c>
       <c r="BP9" s="1">
-        <v>1255.490000</v>
+        <v>1255.49</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-564.335000</v>
+        <v>-564.33500000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>3754.953318</v>
+        <v>3754.9533179999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.043043</v>
+        <v>1.0430429999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1401.170000</v>
+        <v>1401.17</v>
       </c>
       <c r="BV9" s="1">
-        <v>-785.221000</v>
+        <v>-785.221</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>3765.434775</v>
+        <v>3765.4347750000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>1.045954</v>
+        <v>1.0459540000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1560.630000</v>
+        <v>1560.63</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1015.640000</v>
+        <v>-1015.64</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>3777.037690</v>
+        <v>3777.0376900000001</v>
       </c>
       <c r="CD9" s="1">
         <v>1.049177</v>
       </c>
       <c r="CE9" s="1">
-        <v>1963.480000</v>
+        <v>1963.48</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1552.760000</v>
+        <v>-1552.76</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>3606.357402</v>
+        <v>3606.3574020000001</v>
       </c>
       <c r="B10" s="1">
-        <v>1.001766</v>
+        <v>1.0017659999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>898.447000</v>
+        <v>898.447</v>
       </c>
       <c r="D10" s="1">
-        <v>-190.115000</v>
+        <v>-190.11500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>3616.852221</v>
+        <v>3616.8522210000001</v>
       </c>
       <c r="G10" s="1">
-        <v>1.004681</v>
+        <v>1.0046809999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>915.933000</v>
+        <v>915.93299999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-162.283000</v>
+        <v>-162.28299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>3627.257791</v>
       </c>
       <c r="L10" s="1">
-        <v>1.007572</v>
+        <v>1.0075719999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>939.122000</v>
+        <v>939.12199999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.400000</v>
+        <v>-117.4</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>3637.722416</v>
+        <v>3637.7224160000001</v>
       </c>
       <c r="Q10" s="1">
         <v>1.010478</v>
       </c>
       <c r="R10" s="1">
-        <v>946.114000</v>
+        <v>946.11400000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.576000</v>
+        <v>-102.57599999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>3648.565923</v>
+        <v>3648.5659230000001</v>
       </c>
       <c r="V10" s="1">
-        <v>1.013491</v>
+        <v>1.0134909999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>952.966000</v>
+        <v>952.96600000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.265500</v>
+        <v>-89.265500000000003</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>3659.038479</v>
+        <v>3659.0384789999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>1.016400</v>
+        <v>1.0164</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.523000</v>
+        <v>960.52300000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.878400</v>
+        <v>-79.878399999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>3669.561079</v>
+        <v>3669.5610790000001</v>
       </c>
       <c r="AF10" s="1">
         <v>1.019323</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.556000</v>
+        <v>965.55600000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.356600</v>
+        <v>-79.3566</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>3680.413578</v>
+        <v>3680.4135780000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>1.022337</v>
+        <v>1.0223370000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.628000</v>
+        <v>973.62800000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-86.918800</v>
+        <v>-86.918800000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>3691.100346</v>
+        <v>3691.1003460000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>1.025306</v>
+        <v>1.0253060000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.855000</v>
+        <v>982.85500000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.490000</v>
+        <v>-101.49</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>3701.485581</v>
+        <v>3701.4855809999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>1.028190</v>
+        <v>1.0281899999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.255000</v>
+        <v>994.255</v>
       </c>
       <c r="AW10" s="1">
-        <v>-122.593000</v>
+        <v>-122.593</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>3712.543887</v>
+        <v>3712.5438869999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1.031262</v>
+        <v>1.0312619999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB10" s="1">
-        <v>-140.950000</v>
+        <v>-140.94999999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>3723.163759</v>
       </c>
       <c r="BE10" s="1">
-        <v>1.034212</v>
+        <v>1.0342119999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1048.530000</v>
+        <v>1048.53</v>
       </c>
       <c r="BG10" s="1">
-        <v>-223.976000</v>
+        <v>-223.976</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>3734.288496</v>
+        <v>3734.2884960000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1.037302</v>
+        <v>1.0373019999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1126.440000</v>
+        <v>1126.44</v>
       </c>
       <c r="BL10" s="1">
-        <v>-357.495000</v>
+        <v>-357.495</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>3744.627108</v>
+        <v>3744.6271080000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>1.040174</v>
+        <v>1.0401739999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1255.550000</v>
+        <v>1255.55</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-564.340000</v>
+        <v>-564.34</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>3755.101621</v>
+        <v>3755.1016209999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>1.043084</v>
+        <v>1.0430839999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1401.260000</v>
+        <v>1401.26</v>
       </c>
       <c r="BV10" s="1">
-        <v>-785.301000</v>
+        <v>-785.30100000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>3765.856871</v>
@@ -2762,407 +3178,407 @@
         <v>1.046071</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1560.760000</v>
+        <v>1560.76</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1015.720000</v>
+        <v>-1015.72</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>3777.556007</v>
+        <v>3777.5560070000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>1.049321</v>
+        <v>1.0493209999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1963.150000</v>
+        <v>1963.15</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1551.940000</v>
+        <v>-1551.94</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>3606.774041</v>
+        <v>3606.7740410000001</v>
       </c>
       <c r="B11" s="1">
-        <v>1.001882</v>
+        <v>1.0018819999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>898.459000</v>
+        <v>898.45899999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-190.099000</v>
+        <v>-190.09899999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>3617.147378</v>
+        <v>3617.1473780000001</v>
       </c>
       <c r="G11" s="1">
-        <v>1.004763</v>
+        <v>1.0047630000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>915.863000</v>
+        <v>915.86300000000006</v>
       </c>
       <c r="I11" s="1">
-        <v>-162.277000</v>
+        <v>-162.27699999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>3627.601550</v>
+        <v>3627.6015499999999</v>
       </c>
       <c r="L11" s="1">
-        <v>1.007667</v>
+        <v>1.0076670000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>939.204000</v>
+        <v>939.20399999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.465000</v>
+        <v>-117.465</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>3638.074545</v>
+        <v>3638.0745449999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.010576</v>
+        <v>1.0105759999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>946.107000</v>
+        <v>946.10699999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.580000</v>
+        <v>-102.58</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>3648.909953</v>
+        <v>3648.9099529999999</v>
       </c>
       <c r="V11" s="1">
-        <v>1.013586</v>
+        <v>1.0135860000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>952.847000</v>
+        <v>952.84699999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.237700</v>
+        <v>-89.237700000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>3659.733347</v>
+        <v>3659.7333469999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.016593</v>
+        <v>1.0165930000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.465000</v>
+        <v>960.46500000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.822500</v>
+        <v>-79.822500000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>3670.246578</v>
+        <v>3670.2465780000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>1.019513</v>
+        <v>1.0195129999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.547000</v>
+        <v>965.54700000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.361900</v>
+        <v>-79.361900000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>3680.758295</v>
+        <v>3680.7582950000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>1.022433</v>
+        <v>1.0224329999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.627000</v>
+        <v>973.62699999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-86.925800</v>
+        <v>-86.925799999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>3691.479816</v>
       </c>
       <c r="AP11" s="1">
-        <v>1.025411</v>
+        <v>1.0254110000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.877000</v>
+        <v>982.87699999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.504000</v>
+        <v>-101.504</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>3701.849175</v>
+        <v>3701.8491749999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>1.028291</v>
+        <v>1.0282910000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.260000</v>
+        <v>994.26</v>
       </c>
       <c r="AW11" s="1">
-        <v>-122.602000</v>
+        <v>-122.602</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>3713.204232</v>
       </c>
       <c r="AZ11" s="1">
-        <v>1.031446</v>
+        <v>1.0314460000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB11" s="1">
-        <v>-140.936000</v>
+        <v>-140.93600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>3723.820960</v>
+        <v>3723.82096</v>
       </c>
       <c r="BE11" s="1">
         <v>1.034395</v>
       </c>
       <c r="BF11" s="1">
-        <v>1048.520000</v>
+        <v>1048.52</v>
       </c>
       <c r="BG11" s="1">
-        <v>-223.961000</v>
+        <v>-223.96100000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>3734.397617</v>
+        <v>3734.3976170000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>1.037333</v>
+        <v>1.0373330000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1126.460000</v>
+        <v>1126.46</v>
       </c>
       <c r="BL11" s="1">
-        <v>-357.483000</v>
+        <v>-357.483</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>3745.036835</v>
+        <v>3745.0368349999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>1.040288</v>
+        <v>1.0402880000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1255.520000</v>
+        <v>1255.52</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-564.309000</v>
+        <v>-564.30899999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>3755.517766</v>
+        <v>3755.5177659999999</v>
       </c>
       <c r="BT11" s="1">
         <v>1.043199</v>
       </c>
       <c r="BU11" s="1">
-        <v>1401.270000</v>
+        <v>1401.27</v>
       </c>
       <c r="BV11" s="1">
-        <v>-785.446000</v>
+        <v>-785.44600000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>3766.281453</v>
+        <v>3766.2814530000001</v>
       </c>
       <c r="BY11" s="1">
         <v>1.046189</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1560.760000</v>
+        <v>1560.76</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1015.670000</v>
+        <v>-1015.67</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>3778.107095</v>
+        <v>3778.1070949999998</v>
       </c>
       <c r="CD11" s="1">
         <v>1.049474</v>
       </c>
       <c r="CE11" s="1">
-        <v>1964.100000</v>
+        <v>1964.1</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1551.330000</v>
+        <v>-1551.33</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>3607.045321</v>
+        <v>3607.0453210000001</v>
       </c>
       <c r="B12" s="1">
         <v>1.001957</v>
       </c>
       <c r="C12" s="1">
-        <v>898.469000</v>
+        <v>898.46900000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-190.294000</v>
+        <v>-190.29400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>3617.491104</v>
+        <v>3617.4911040000002</v>
       </c>
       <c r="G12" s="1">
-        <v>1.004859</v>
+        <v>1.0048589999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>915.786000</v>
+        <v>915.78599999999994</v>
       </c>
       <c r="I12" s="1">
-        <v>-162.645000</v>
+        <v>-162.64500000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>3627.950205</v>
+        <v>3627.9502050000001</v>
       </c>
       <c r="L12" s="1">
-        <v>1.007764</v>
+        <v>1.0077640000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>939.247000</v>
+        <v>939.24699999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.276000</v>
+        <v>-117.276</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>3638.419759</v>
+        <v>3638.4197589999999</v>
       </c>
       <c r="Q12" s="1">
         <v>1.010672</v>
       </c>
       <c r="R12" s="1">
-        <v>946.051000</v>
+        <v>946.05100000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.628000</v>
+        <v>-102.628</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>3649.596113</v>
+        <v>3649.5961130000001</v>
       </c>
       <c r="V12" s="1">
-        <v>1.013777</v>
+        <v>1.0137769999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>952.902000</v>
+        <v>952.90200000000004</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.205700</v>
+        <v>-89.205699999999993</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>3660.083523</v>
+        <v>3660.0835229999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>1.016690</v>
+        <v>1.0166900000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.398000</v>
+        <v>960.39800000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.834700</v>
+        <v>-79.834699999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>3670.590278</v>
+        <v>3670.5902780000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>1.019608</v>
+        <v>1.0196080000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.566000</v>
+        <v>965.56600000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.385900</v>
+        <v>-79.385900000000007</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>3681.109959</v>
+        <v>3681.1099589999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>1.022531</v>
+        <v>1.0225310000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.614000</v>
+        <v>973.61400000000003</v>
       </c>
       <c r="AM12" s="1">
-        <v>-86.900300</v>
+        <v>-86.900300000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>3691.860713</v>
@@ -3171,58 +3587,58 @@
         <v>1.025517</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.840000</v>
+        <v>982.84</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.522000</v>
+        <v>-101.52200000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>3702.523743</v>
+        <v>3702.5237430000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>1.028479</v>
+        <v>1.0284789999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.254000</v>
+        <v>994.25400000000002</v>
       </c>
       <c r="AW12" s="1">
-        <v>-122.591000</v>
+        <v>-122.59099999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>3713.646034</v>
+        <v>3713.6460339999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>1.031568</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB12" s="1">
-        <v>-140.933000</v>
+        <v>-140.93299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>3724.287701</v>
+        <v>3724.2877010000002</v>
       </c>
       <c r="BE12" s="1">
         <v>1.034524</v>
       </c>
       <c r="BF12" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG12" s="1">
-        <v>-223.975000</v>
+        <v>-223.97499999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>3734.757216</v>
@@ -3231,105 +3647,105 @@
         <v>1.037433</v>
       </c>
       <c r="BK12" s="1">
-        <v>1126.460000</v>
+        <v>1126.46</v>
       </c>
       <c r="BL12" s="1">
-        <v>-357.506000</v>
+        <v>-357.50599999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>3745.434833</v>
+        <v>3745.4348329999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>1.040399</v>
+        <v>1.0403990000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1255.470000</v>
+        <v>1255.47</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-564.342000</v>
+        <v>-564.34199999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>3755.941381</v>
+        <v>3755.9413810000001</v>
       </c>
       <c r="BT12" s="1">
         <v>1.043317</v>
       </c>
       <c r="BU12" s="1">
-        <v>1401.140000</v>
+        <v>1401.14</v>
       </c>
       <c r="BV12" s="1">
-        <v>-785.585000</v>
+        <v>-785.58500000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>3766.702587</v>
+        <v>3766.7025870000002</v>
       </c>
       <c r="BY12" s="1">
         <v>1.046306</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1560.660000</v>
+        <v>1560.66</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1015.750000</v>
+        <v>-1015.75</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>3778.634839</v>
+        <v>3778.6348389999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>1.049621</v>
+        <v>1.0496209999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1963.590000</v>
+        <v>1963.59</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1553.120000</v>
+        <v>-1553.12</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>3607.399010</v>
+        <v>3607.3990100000001</v>
       </c>
       <c r="B13" s="1">
-        <v>1.002055</v>
+        <v>1.0020549999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>898.419000</v>
+        <v>898.41899999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-190.198000</v>
+        <v>-190.19800000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>3617.837302</v>
+        <v>3617.8373019999999</v>
       </c>
       <c r="G13" s="1">
         <v>1.004955</v>
       </c>
       <c r="H13" s="1">
-        <v>915.969000</v>
+        <v>915.96900000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-162.362000</v>
+        <v>-162.36199999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>3628.646092</v>
@@ -3338,178 +3754,178 @@
         <v>1.007957</v>
       </c>
       <c r="M13" s="1">
-        <v>939.265000</v>
+        <v>939.26499999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.310000</v>
+        <v>-117.31</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>3639.116639</v>
+        <v>3639.1166389999999</v>
       </c>
       <c r="Q13" s="1">
         <v>1.010866</v>
       </c>
       <c r="R13" s="1">
-        <v>946.049000</v>
+        <v>946.04899999999998</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.598000</v>
+        <v>-102.598</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>3649.939344</v>
+        <v>3649.9393439999999</v>
       </c>
       <c r="V13" s="1">
-        <v>1.013872</v>
+        <v>1.0138720000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>952.964000</v>
+        <v>952.96400000000006</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.271000</v>
+        <v>-89.271000000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>3660.430226</v>
+        <v>3660.4302259999999</v>
       </c>
       <c r="AA13" s="1">
         <v>1.016786</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.402000</v>
+        <v>960.40200000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.904100</v>
+        <v>-79.9041</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>3670.933510</v>
+        <v>3670.9335099999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>1.019704</v>
+        <v>1.0197039999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.565000</v>
+        <v>965.56500000000005</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.364400</v>
+        <v>-79.364400000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>3681.757206</v>
+        <v>3681.7572060000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>1.022710</v>
+        <v>1.02271</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.630000</v>
+        <v>973.63</v>
       </c>
       <c r="AM13" s="1">
-        <v>-86.936200</v>
+        <v>-86.936199999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>3692.301161</v>
+        <v>3692.3011609999999</v>
       </c>
       <c r="AP13" s="1">
         <v>1.025639</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.856000</v>
+        <v>982.85599999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.519000</v>
+        <v>-101.51900000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>3702.975099</v>
+        <v>3702.9750990000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>1.028604</v>
+        <v>1.0286040000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.241000</v>
+        <v>994.24099999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-122.619000</v>
+        <v>-122.619</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>3714.007083</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1.031669</v>
+        <v>1.0316689999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB13" s="1">
-        <v>-140.975000</v>
+        <v>-140.97499999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>3724.640319</v>
+        <v>3724.6403190000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>1.034622</v>
+        <v>1.0346219999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1048.550000</v>
+        <v>1048.55</v>
       </c>
       <c r="BG13" s="1">
-        <v>-223.974000</v>
+        <v>-223.97399999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>3735.131696</v>
+        <v>3735.1316959999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>1.037537</v>
+        <v>1.0375369999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1126.460000</v>
+        <v>1126.46</v>
       </c>
       <c r="BL13" s="1">
-        <v>-357.515000</v>
+        <v>-357.51499999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>3745.852225</v>
+        <v>3745.8522250000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>1.040515</v>
+        <v>1.0405150000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1255.520000</v>
+        <v>1255.52</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-564.378000</v>
+        <v>-564.37800000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>3756.361461</v>
@@ -3518,60 +3934,60 @@
         <v>1.043434</v>
       </c>
       <c r="BU13" s="1">
-        <v>1401.190000</v>
+        <v>1401.19</v>
       </c>
       <c r="BV13" s="1">
-        <v>-785.652000</v>
+        <v>-785.65200000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>3767.147461</v>
       </c>
       <c r="BY13" s="1">
-        <v>1.046430</v>
+        <v>1.04643</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1560.650000</v>
+        <v>1560.65</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1015.710000</v>
+        <v>-1015.71</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>3779.156103</v>
+        <v>3779.1561029999998</v>
       </c>
       <c r="CD13" s="1">
         <v>1.049766</v>
       </c>
       <c r="CE13" s="1">
-        <v>1965.330000</v>
+        <v>1965.33</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1552.220000</v>
+        <v>-1552.22</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>3607.738232</v>
+        <v>3607.7382320000002</v>
       </c>
       <c r="B14" s="1">
-        <v>1.002150</v>
+        <v>1.0021500000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>898.399000</v>
+        <v>898.399</v>
       </c>
       <c r="D14" s="1">
-        <v>-190.053000</v>
+        <v>-190.053</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>3618.523737</v>
@@ -3580,103 +3996,103 @@
         <v>1.005145</v>
       </c>
       <c r="H14" s="1">
-        <v>915.870000</v>
+        <v>915.87</v>
       </c>
       <c r="I14" s="1">
-        <v>-162.212000</v>
+        <v>-162.21199999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>3628.992333</v>
+        <v>3628.9923330000001</v>
       </c>
       <c r="L14" s="1">
-        <v>1.008053</v>
+        <v>1.0080530000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>939.088000</v>
+        <v>939.08799999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.452000</v>
+        <v>-117.452</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>3639.465822</v>
+        <v>3639.4658220000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.010963</v>
+        <v>1.0109630000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>946.065000</v>
+        <v>946.06500000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.566000</v>
+        <v>-102.566</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>3650.284064</v>
+        <v>3650.2840639999999</v>
       </c>
       <c r="V14" s="1">
         <v>1.013968</v>
       </c>
       <c r="W14" s="1">
-        <v>952.886000</v>
+        <v>952.88599999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.236000</v>
+        <v>-89.236000000000004</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>3661.085474</v>
       </c>
       <c r="AA14" s="1">
-        <v>1.016968</v>
+        <v>1.0169680000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.494000</v>
+        <v>960.49400000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.846300</v>
+        <v>-79.846299999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>3671.576355</v>
+        <v>3671.5763550000001</v>
       </c>
       <c r="AF14" s="1">
         <v>1.019882</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.564000</v>
+        <v>965.56399999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.406600</v>
+        <v>-79.406599999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>3682.156487</v>
+        <v>3682.1564870000002</v>
       </c>
       <c r="AK14" s="1">
         <v>1.022821</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.610000</v>
+        <v>973.61</v>
       </c>
       <c r="AM14" s="1">
-        <v>-86.914000</v>
+        <v>-86.914000000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>3692.579416</v>
@@ -3685,360 +4101,360 @@
         <v>1.025717</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.863000</v>
+        <v>982.86300000000006</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.512000</v>
+        <v>-101.512</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>3703.342634</v>
+        <v>3703.3426340000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>1.028706</v>
+        <v>1.0287059999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.268000</v>
+        <v>994.26800000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-122.603000</v>
+        <v>-122.60299999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>3714.363243</v>
+        <v>3714.3632429999998</v>
       </c>
       <c r="AZ14" s="1">
         <v>1.031768</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.810000</v>
+        <v>1003.81</v>
       </c>
       <c r="BB14" s="1">
-        <v>-140.960000</v>
+        <v>-140.96</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>3725.005907</v>
+        <v>3725.0059070000002</v>
       </c>
       <c r="BE14" s="1">
         <v>1.034724</v>
       </c>
       <c r="BF14" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG14" s="1">
-        <v>-223.975000</v>
+        <v>-223.97499999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>3735.549327</v>
+        <v>3735.5493270000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>1.037653</v>
+        <v>1.0376529999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1126.470000</v>
+        <v>1126.47</v>
       </c>
       <c r="BL14" s="1">
-        <v>-357.473000</v>
+        <v>-357.47300000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>3746.252001</v>
+        <v>3746.2520009999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>1.040626</v>
+        <v>1.0406260000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1255.520000</v>
+        <v>1255.52</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-564.365000</v>
+        <v>-564.36500000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>3756.773636</v>
+        <v>3756.7736359999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>1.043548</v>
+        <v>1.0435479999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1401.040000</v>
+        <v>1401.04</v>
       </c>
       <c r="BV14" s="1">
-        <v>-785.763000</v>
+        <v>-785.76300000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>3767.569596</v>
+        <v>3767.5695959999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>1.046547</v>
+        <v>1.0465469999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1560.690000</v>
+        <v>1560.69</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1015.770000</v>
+        <v>-1015.77</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>3779.693765</v>
       </c>
       <c r="CD14" s="1">
-        <v>1.049915</v>
+        <v>1.0499149999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1963.720000</v>
+        <v>1963.72</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1551.500000</v>
+        <v>-1551.5</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>3608.424200</v>
+        <v>3608.4241999999999</v>
       </c>
       <c r="B15" s="1">
-        <v>1.002340</v>
+        <v>1.00234</v>
       </c>
       <c r="C15" s="1">
-        <v>898.344000</v>
+        <v>898.34400000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>-190.219000</v>
+        <v>-190.21899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>3618.872458</v>
+        <v>3618.8724579999998</v>
       </c>
       <c r="G15" s="1">
         <v>1.005242</v>
       </c>
       <c r="H15" s="1">
-        <v>915.836000</v>
+        <v>915.83600000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-162.186000</v>
+        <v>-162.18600000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>3629.344956</v>
+        <v>3629.3449559999999</v>
       </c>
       <c r="L15" s="1">
         <v>1.008151</v>
       </c>
       <c r="M15" s="1">
-        <v>939.191000</v>
+        <v>939.19100000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.503000</v>
+        <v>-117.503</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>3639.814046</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.011059</v>
+        <v>1.0110589999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>946.093000</v>
+        <v>946.09299999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.574000</v>
+        <v>-102.574</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>3650.930351</v>
       </c>
       <c r="V15" s="1">
-        <v>1.014147</v>
+        <v>1.0141469999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>952.972000</v>
+        <v>952.97199999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.248900</v>
+        <v>-89.248900000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>3661.477281</v>
+        <v>3661.4772809999999</v>
       </c>
       <c r="AA15" s="1">
         <v>1.017077</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.407000</v>
+        <v>960.40700000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.912800</v>
+        <v>-79.912800000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>3671.964691</v>
+        <v>3671.9646910000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>1.019990</v>
+        <v>1.01999</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.551000</v>
+        <v>965.55100000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.379400</v>
+        <v>-79.379400000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>3682.506165</v>
+        <v>3682.5061649999998</v>
       </c>
       <c r="AK15" s="1">
         <v>1.022918</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.628000</v>
+        <v>973.62800000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-86.911900</v>
+        <v>-86.911900000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>3692.940040</v>
+        <v>3692.94004</v>
       </c>
       <c r="AP15" s="1">
         <v>1.025817</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.875000</v>
+        <v>982.875</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.522000</v>
+        <v>-101.52200000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>3703.708180</v>
+        <v>3703.7081800000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>1.028808</v>
+        <v>1.0288079999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.265000</v>
+        <v>994.26499999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-122.584000</v>
+        <v>-122.584</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>3714.785804</v>
+        <v>3714.7858040000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.031885</v>
+        <v>1.0318849999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB15" s="1">
-        <v>-140.963000</v>
+        <v>-140.96299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>3725.488478</v>
+        <v>3725.4884780000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>1.034858</v>
+        <v>1.0348580000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1048.510000</v>
+        <v>1048.51</v>
       </c>
       <c r="BG15" s="1">
-        <v>-223.951000</v>
+        <v>-223.95099999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>3735.882640</v>
+        <v>3735.8826399999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>1.037745</v>
+        <v>1.0377449999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1126.460000</v>
+        <v>1126.46</v>
       </c>
       <c r="BL15" s="1">
-        <v>-357.462000</v>
+        <v>-357.46199999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>3746.671617</v>
       </c>
       <c r="BO15" s="1">
-        <v>1.040742</v>
+        <v>1.0407420000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1255.510000</v>
+        <v>1255.51</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-564.323000</v>
+        <v>-564.32299999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>3757.190275</v>
+        <v>3757.1902749999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>1.043664</v>
+        <v>1.0436639999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1400.900000</v>
+        <v>1400.9</v>
       </c>
       <c r="BV15" s="1">
-        <v>-785.802000</v>
+        <v>-785.80200000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>3767.991176</v>
@@ -4047,165 +4463,165 @@
         <v>1.046664</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1560.710000</v>
+        <v>1560.71</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1015.690000</v>
+        <v>-1015.69</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>3780.234436</v>
+        <v>3780.2344360000002</v>
       </c>
       <c r="CD15" s="1">
         <v>1.050065</v>
       </c>
       <c r="CE15" s="1">
-        <v>1964.580000</v>
+        <v>1964.58</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1553.560000</v>
+        <v>-1553.56</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>3608.767432</v>
+        <v>3608.7674320000001</v>
       </c>
       <c r="B16" s="1">
         <v>1.002435</v>
       </c>
       <c r="C16" s="1">
-        <v>898.280000</v>
+        <v>898.28</v>
       </c>
       <c r="D16" s="1">
-        <v>-190.282000</v>
+        <v>-190.28200000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>3619.215688</v>
+        <v>3619.2156880000002</v>
       </c>
       <c r="G16" s="1">
-        <v>1.005338</v>
+        <v>1.0053380000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>915.785000</v>
+        <v>915.78499999999997</v>
       </c>
       <c r="I16" s="1">
-        <v>-162.514000</v>
+        <v>-162.51400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>3629.993724</v>
+        <v>3629.9937239999999</v>
       </c>
       <c r="L16" s="1">
         <v>1.008332</v>
       </c>
       <c r="M16" s="1">
-        <v>939.013000</v>
+        <v>939.01300000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.455000</v>
+        <v>-117.455</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>3640.487582</v>
+        <v>3640.4875820000002</v>
       </c>
       <c r="Q16" s="1">
         <v>1.011247</v>
       </c>
       <c r="R16" s="1">
-        <v>946.081000</v>
+        <v>946.08100000000002</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.646000</v>
+        <v>-102.646</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>3651.312768</v>
+        <v>3651.3127679999998</v>
       </c>
       <c r="V16" s="1">
         <v>1.014254</v>
       </c>
       <c r="W16" s="1">
-        <v>952.901000</v>
+        <v>952.90099999999995</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.198200</v>
+        <v>-89.1982</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>3661.825614</v>
+        <v>3661.8256139999999</v>
       </c>
       <c r="AA16" s="1">
         <v>1.017174</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.541000</v>
+        <v>960.54100000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.914400</v>
+        <v>-79.914400000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>3672.309938</v>
+        <v>3672.3099379999999</v>
       </c>
       <c r="AF16" s="1">
         <v>1.020086</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.569000</v>
+        <v>965.56899999999996</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.389100</v>
+        <v>-79.389099999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>3682.851877</v>
+        <v>3682.8518770000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>1.023014</v>
+        <v>1.0230140000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.620000</v>
+        <v>973.62</v>
       </c>
       <c r="AM16" s="1">
-        <v>-86.906500</v>
+        <v>-86.906499999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>3693.358664</v>
+        <v>3693.3586639999999</v>
       </c>
       <c r="AP16" s="1">
         <v>1.025933</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.904000</v>
+        <v>982.904</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.518000</v>
+        <v>-101.518</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>3704.115401</v>
@@ -4214,315 +4630,315 @@
         <v>1.028921</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.253000</v>
+        <v>994.25300000000004</v>
       </c>
       <c r="AW16" s="1">
-        <v>-122.596000</v>
+        <v>-122.596</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>3715.080954</v>
       </c>
       <c r="AZ16" s="1">
-        <v>1.031967</v>
+        <v>1.0319670000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB16" s="1">
-        <v>-140.938000</v>
+        <v>-140.93799999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>3725.741964</v>
+        <v>3725.7419639999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>1.034928</v>
+        <v>1.0349280000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1048.520000</v>
+        <v>1048.52</v>
       </c>
       <c r="BG16" s="1">
-        <v>-223.977000</v>
+        <v>-223.977</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>3736.282415</v>
+        <v>3736.2824150000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>1.037856</v>
+        <v>1.0378559999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1126.460000</v>
+        <v>1126.46</v>
       </c>
       <c r="BL16" s="1">
-        <v>-357.505000</v>
+        <v>-357.505</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>3747.067920</v>
+        <v>3747.06792</v>
       </c>
       <c r="BO16" s="1">
-        <v>1.040852</v>
+        <v>1.0408520000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1255.500000</v>
+        <v>1255.5</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-564.372000</v>
+        <v>-564.37199999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>3757.602450</v>
+        <v>3757.6024499999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.043778</v>
+        <v>1.0437780000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1400.830000</v>
+        <v>1400.83</v>
       </c>
       <c r="BV16" s="1">
-        <v>-785.708000</v>
+        <v>-785.70799999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>3768.439540</v>
+        <v>3768.4395399999999</v>
       </c>
       <c r="BY16" s="1">
         <v>1.046789</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1560.770000</v>
+        <v>1560.77</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1015.760000</v>
+        <v>-1015.76</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>3780.772563</v>
       </c>
       <c r="CD16" s="1">
-        <v>1.050215</v>
+        <v>1.0502149999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1964.950000</v>
+        <v>1964.95</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1551.450000</v>
+        <v>-1551.45</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>3609.419174</v>
+        <v>3609.4191740000001</v>
       </c>
       <c r="B17" s="1">
         <v>1.002616</v>
       </c>
       <c r="C17" s="1">
-        <v>898.379000</v>
+        <v>898.37900000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-190.197000</v>
+        <v>-190.197</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>3619.866408</v>
+        <v>3619.8664079999999</v>
       </c>
       <c r="G17" s="1">
-        <v>1.005518</v>
+        <v>1.0055179999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>915.780000</v>
+        <v>915.78</v>
       </c>
       <c r="I17" s="1">
-        <v>-162.254000</v>
+        <v>-162.25399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>3630.381098</v>
+        <v>3630.3810979999998</v>
       </c>
       <c r="L17" s="1">
-        <v>1.008439</v>
+        <v>1.0084390000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>939.268000</v>
+        <v>939.26800000000003</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.397000</v>
+        <v>-117.39700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>3640.863548</v>
+        <v>3640.8635479999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.011351</v>
+        <v>1.0113510000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>946.055000</v>
+        <v>946.05499999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.632000</v>
+        <v>-102.63200000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>3651.657486</v>
+        <v>3651.6574860000001</v>
       </c>
       <c r="V17" s="1">
-        <v>1.014349</v>
+        <v>1.0143489999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>952.921000</v>
+        <v>952.92100000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.206100</v>
+        <v>-89.206100000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>3662.177632</v>
+        <v>3662.1776319999999</v>
       </c>
       <c r="AA17" s="1">
         <v>1.017272</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.439000</v>
+        <v>960.43899999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.929500</v>
+        <v>-79.929500000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>3672.646690</v>
+        <v>3672.64669</v>
       </c>
       <c r="AF17" s="1">
-        <v>1.020180</v>
+        <v>1.0201800000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.542000</v>
+        <v>965.54200000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.364100</v>
+        <v>-79.364099999999993</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>3683.279957</v>
+        <v>3683.2799570000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>1.023133</v>
+        <v>1.0231330000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.634000</v>
+        <v>973.63400000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-86.899600</v>
+        <v>-86.899600000000007</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>3693.657751</v>
+        <v>3693.6577510000002</v>
       </c>
       <c r="AP17" s="1">
         <v>1.026016</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.858000</v>
+        <v>982.85799999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.521000</v>
+        <v>-101.521</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>3704.437272</v>
+        <v>3704.4372720000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>1.029010</v>
+        <v>1.02901</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.242000</v>
+        <v>994.24199999999996</v>
       </c>
       <c r="AW17" s="1">
-        <v>-122.599000</v>
+        <v>-122.599</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>3715.442044</v>
+        <v>3715.4420439999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1.032067</v>
+        <v>1.0320670000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB17" s="1">
-        <v>-140.931000</v>
+        <v>-140.93100000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>3726.084668</v>
       </c>
       <c r="BE17" s="1">
-        <v>1.035024</v>
+        <v>1.0350239999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1048.550000</v>
+        <v>1048.55</v>
       </c>
       <c r="BG17" s="1">
-        <v>-223.953000</v>
+        <v>-223.953</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>3736.657400</v>
+        <v>3736.6574000000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>1.037960</v>
+        <v>1.03796</v>
       </c>
       <c r="BK17" s="1">
-        <v>1126.440000</v>
+        <v>1126.44</v>
       </c>
       <c r="BL17" s="1">
-        <v>-357.482000</v>
+        <v>-357.48200000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>3747.489521</v>
@@ -4531,120 +4947,120 @@
         <v>1.040969</v>
       </c>
       <c r="BP17" s="1">
-        <v>1255.550000</v>
+        <v>1255.55</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-564.351000</v>
+        <v>-564.351</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>3758.040419</v>
+        <v>3758.0404189999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>1.043900</v>
+        <v>1.0439000000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1400.670000</v>
+        <v>1400.67</v>
       </c>
       <c r="BV17" s="1">
-        <v>-785.675000</v>
+        <v>-785.67499999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>3768.867589</v>
       </c>
       <c r="BY17" s="1">
-        <v>1.046908</v>
+        <v>1.0469079999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1560.630000</v>
+        <v>1560.63</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1015.690000</v>
+        <v>-1015.69</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>3781.314195</v>
+        <v>3781.3141949999999</v>
       </c>
       <c r="CD17" s="1">
         <v>1.050365</v>
       </c>
       <c r="CE17" s="1">
-        <v>1963.710000</v>
+        <v>1963.71</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1552.670000</v>
+        <v>-1552.67</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>3609.787734</v>
       </c>
       <c r="B18" s="1">
-        <v>1.002719</v>
+        <v>1.0027189999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>898.440000</v>
+        <v>898.44</v>
       </c>
       <c r="D18" s="1">
-        <v>-190.317000</v>
+        <v>-190.31700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>3620.250312</v>
+        <v>3620.2503120000001</v>
       </c>
       <c r="G18" s="1">
         <v>1.005625</v>
       </c>
       <c r="H18" s="1">
-        <v>915.959000</v>
+        <v>915.95899999999995</v>
       </c>
       <c r="I18" s="1">
-        <v>-162.407000</v>
+        <v>-162.40700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>3630.724329</v>
+        <v>3630.7243290000001</v>
       </c>
       <c r="L18" s="1">
         <v>1.008535</v>
       </c>
       <c r="M18" s="1">
-        <v>939.052000</v>
+        <v>939.05200000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.217000</v>
+        <v>-117.217</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>3641.210625</v>
+        <v>3641.2106250000002</v>
       </c>
       <c r="Q18" s="1">
         <v>1.011447</v>
       </c>
       <c r="R18" s="1">
-        <v>946.030000</v>
+        <v>946.03</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.634000</v>
+        <v>-102.634</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>3652.007165</v>
@@ -4653,270 +5069,270 @@
         <v>1.014446</v>
       </c>
       <c r="W18" s="1">
-        <v>952.854000</v>
+        <v>952.85400000000004</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.166900</v>
+        <v>-89.166899999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>3662.603199</v>
+        <v>3662.6031990000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>1.017390</v>
+        <v>1.01739</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.411000</v>
+        <v>960.41099999999994</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.845500</v>
+        <v>-79.845500000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>3673.069779</v>
+        <v>3673.0697789999999</v>
       </c>
       <c r="AF18" s="1">
         <v>1.020297</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.545000</v>
+        <v>965.54499999999996</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.382500</v>
+        <v>-79.382499999999993</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>3683.560660</v>
+        <v>3683.5606600000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>1.023211</v>
+        <v>1.0232110000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.623000</v>
+        <v>973.62300000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-86.935600</v>
+        <v>-86.935599999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>3694.019799</v>
+        <v>3694.0197990000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>1.026117</v>
+        <v>1.0261169999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.877000</v>
+        <v>982.87699999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.526000</v>
+        <v>-101.526</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>3704.801336</v>
       </c>
       <c r="AU18" s="1">
-        <v>1.029111</v>
+        <v>1.0291110000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.250000</v>
+        <v>994.25</v>
       </c>
       <c r="AW18" s="1">
-        <v>-122.597000</v>
+        <v>-122.59699999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>3715.800121</v>
+        <v>3715.8001210000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1.032167</v>
+        <v>1.0321670000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB18" s="1">
-        <v>-140.963000</v>
+        <v>-140.96299999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>3726.817258</v>
       </c>
       <c r="BE18" s="1">
-        <v>1.035227</v>
+        <v>1.0352269999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1048.510000</v>
+        <v>1048.51</v>
       </c>
       <c r="BG18" s="1">
-        <v>-223.975000</v>
+        <v>-223.97499999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>3737.407373</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1.038169</v>
+        <v>1.0381689999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1126.440000</v>
+        <v>1126.44</v>
       </c>
       <c r="BL18" s="1">
-        <v>-357.515000</v>
+        <v>-357.51499999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>3747.884500</v>
+        <v>3747.8845000000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>1.041079</v>
+        <v>1.0410790000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1255.500000</v>
+        <v>1255.5</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-564.381000</v>
+        <v>-564.38099999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>3758.470449</v>
+        <v>3758.4704489999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>1.044020</v>
+        <v>1.0440199999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1400.640000</v>
+        <v>1400.64</v>
       </c>
       <c r="BV18" s="1">
-        <v>-785.512000</v>
+        <v>-785.51199999999994</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>3769.288718</v>
+        <v>3769.2887179999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>1.047025</v>
+        <v>1.0470250000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1560.690000</v>
+        <v>1560.69</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1015.740000</v>
+        <v>-1015.74</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>3782.160371</v>
+        <v>3782.1603709999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.050600</v>
+        <v>1.0506</v>
       </c>
       <c r="CE18" s="1">
-        <v>1964.870000</v>
+        <v>1964.87</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1551.470000</v>
+        <v>-1551.47</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>3610.131925</v>
+        <v>3610.1319250000001</v>
       </c>
       <c r="B19" s="1">
-        <v>1.002814</v>
+        <v>1.0028140000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>898.402000</v>
+        <v>898.40200000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-190.408000</v>
+        <v>-190.40799999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>3620.595837</v>
+        <v>3620.5958369999998</v>
       </c>
       <c r="G19" s="1">
-        <v>1.005721</v>
+        <v>1.0057210000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>915.974000</v>
+        <v>915.97400000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-162.295000</v>
+        <v>-162.29499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>3631.070043</v>
+        <v>3631.0700430000002</v>
       </c>
       <c r="L19" s="1">
-        <v>1.008631</v>
+        <v>1.0086310000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>939.075000</v>
+        <v>939.07500000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.279000</v>
+        <v>-117.279</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>3641.558444</v>
+        <v>3641.5584439999998</v>
       </c>
       <c r="Q19" s="1">
         <v>1.011544</v>
       </c>
       <c r="R19" s="1">
-        <v>946.067000</v>
+        <v>946.06700000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.566000</v>
+        <v>-102.566</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>3652.428302</v>
+        <v>3652.4283019999998</v>
       </c>
       <c r="V19" s="1">
-        <v>1.014563</v>
+        <v>1.0145630000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>952.910000</v>
+        <v>952.91</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.156900</v>
+        <v>-89.156899999999993</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>3662.878479</v>
@@ -4925,240 +5341,240 @@
         <v>1.017466</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.477000</v>
+        <v>960.47699999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.769100</v>
+        <v>-79.769099999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>3673.360433</v>
+        <v>3673.3604329999998</v>
       </c>
       <c r="AF19" s="1">
         <v>1.020378</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.583000</v>
+        <v>965.58299999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.371600</v>
+        <v>-79.371600000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>3683.908853</v>
+        <v>3683.9088529999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>1.023308</v>
+        <v>1.0233080000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.621000</v>
+        <v>973.62099999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-86.908400</v>
+        <v>-86.9084</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>3694.379416</v>
+        <v>3694.3794160000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>1.026217</v>
+        <v>1.0262169999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.866000</v>
+        <v>982.86599999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.520000</v>
+        <v>-101.52</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>3705.164439</v>
+        <v>3705.1644390000001</v>
       </c>
       <c r="AU19" s="1">
         <v>1.029212</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.240000</v>
+        <v>994.24</v>
       </c>
       <c r="AW19" s="1">
-        <v>-122.607000</v>
+        <v>-122.607</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>3716.518328</v>
+        <v>3716.5183280000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1.032366</v>
+        <v>1.0323659999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB19" s="1">
-        <v>-140.928000</v>
+        <v>-140.928</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>3727.193760</v>
+        <v>3727.1937600000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>1.035332</v>
+        <v>1.0353319999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1048.520000</v>
+        <v>1048.52</v>
       </c>
       <c r="BG19" s="1">
-        <v>-223.971000</v>
+        <v>-223.971</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>3737.782316</v>
+        <v>3737.7823159999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>1.038273</v>
       </c>
       <c r="BK19" s="1">
-        <v>1126.470000</v>
+        <v>1126.47</v>
       </c>
       <c r="BL19" s="1">
-        <v>-357.475000</v>
+        <v>-357.47500000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>3748.308415</v>
       </c>
       <c r="BO19" s="1">
-        <v>1.041197</v>
+        <v>1.0411969999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1255.570000</v>
+        <v>1255.57</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-564.334000</v>
+        <v>-564.33399999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>3759.183696</v>
+        <v>3759.1836960000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>1.044218</v>
+        <v>1.0442180000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1400.560000</v>
+        <v>1400.56</v>
       </c>
       <c r="BV19" s="1">
-        <v>-785.419000</v>
+        <v>-785.41899999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>3770.011363</v>
+        <v>3770.0113630000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>1.047225</v>
+        <v>1.0472250000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1560.770000</v>
+        <v>1560.77</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1015.630000</v>
+        <v>-1015.63</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>3782.392012</v>
+        <v>3782.3920119999998</v>
       </c>
       <c r="CD19" s="1">
         <v>1.050664</v>
       </c>
       <c r="CE19" s="1">
-        <v>1964.850000</v>
+        <v>1964.85</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1551.440000</v>
+        <v>-1551.44</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>3610.475652</v>
+        <v>3610.4756520000001</v>
       </c>
       <c r="B20" s="1">
-        <v>1.002910</v>
+        <v>1.00291</v>
       </c>
       <c r="C20" s="1">
-        <v>898.424000</v>
+        <v>898.42399999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-190.099000</v>
+        <v>-190.09899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>3620.939783</v>
+        <v>3620.9397829999998</v>
       </c>
       <c r="G20" s="1">
         <v>1.005817</v>
       </c>
       <c r="H20" s="1">
-        <v>915.997000</v>
+        <v>915.99699999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-162.257000</v>
+        <v>-162.25700000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>3631.484729</v>
+        <v>3631.4847289999998</v>
       </c>
       <c r="L20" s="1">
-        <v>1.008746</v>
+        <v>1.0087459999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>939.218000</v>
+        <v>939.21799999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.434000</v>
+        <v>-117.434</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>3642.252381</v>
+        <v>3642.2523809999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.011737</v>
+        <v>1.0117370000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>946.091000</v>
+        <v>946.09100000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.574000</v>
+        <v>-102.574</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>3652.710493</v>
@@ -5167,255 +5583,255 @@
         <v>1.014642</v>
       </c>
       <c r="W20" s="1">
-        <v>952.910000</v>
+        <v>952.91</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.218400</v>
+        <v>-89.218400000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>3663.226175</v>
+        <v>3663.2261749999998</v>
       </c>
       <c r="AA20" s="1">
         <v>1.017563</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.354000</v>
+        <v>960.35400000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.858000</v>
+        <v>-79.858000000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>3673.705649</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.020474</v>
+        <v>1.0204740000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.558000</v>
+        <v>965.55799999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.347900</v>
+        <v>-79.347899999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>3684.256944</v>
+        <v>3684.2569440000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>1.023405</v>
+        <v>1.0234049999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.626000</v>
+        <v>973.62599999999998</v>
       </c>
       <c r="AM20" s="1">
-        <v>-86.908300</v>
+        <v>-86.908299999999997</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>3695.100618</v>
+        <v>3695.1006179999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>1.026417</v>
+        <v>1.0264169999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.868000</v>
+        <v>982.86800000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.518000</v>
+        <v>-101.518</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>3705.902455</v>
+        <v>3705.9024549999999</v>
       </c>
       <c r="AU20" s="1">
         <v>1.029417</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.242000</v>
+        <v>994.24199999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-122.601000</v>
+        <v>-122.601</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>3716.876935</v>
+        <v>3716.8769349999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1.032466</v>
+        <v>1.0324660000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB20" s="1">
-        <v>-140.941000</v>
+        <v>-140.941</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>3727.553818</v>
+        <v>3727.5538179999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>1.035432</v>
+        <v>1.0354319999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1048.530000</v>
+        <v>1048.53</v>
       </c>
       <c r="BG20" s="1">
-        <v>-223.992000</v>
+        <v>-223.99199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>3738.158782</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1.038377</v>
+        <v>1.0383770000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1126.470000</v>
+        <v>1126.47</v>
       </c>
       <c r="BL20" s="1">
-        <v>-357.465000</v>
+        <v>-357.46499999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>3749.004301</v>
+        <v>3749.0043009999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>1.041390</v>
+        <v>1.04139</v>
       </c>
       <c r="BP20" s="1">
-        <v>1255.530000</v>
+        <v>1255.53</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-564.359000</v>
+        <v>-564.35900000000004</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>3759.314145</v>
+        <v>3759.3141449999998</v>
       </c>
       <c r="BT20" s="1">
         <v>1.044254</v>
       </c>
       <c r="BU20" s="1">
-        <v>1400.500000</v>
+        <v>1400.5</v>
       </c>
       <c r="BV20" s="1">
-        <v>-785.309000</v>
+        <v>-785.30899999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>3770.139330</v>
+        <v>3770.13933</v>
       </c>
       <c r="BY20" s="1">
         <v>1.047261</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1560.780000</v>
+        <v>1560.78</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1015.700000</v>
+        <v>-1015.7</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>3782.909825</v>
+        <v>3782.9098250000002</v>
       </c>
       <c r="CD20" s="1">
         <v>1.050808</v>
       </c>
       <c r="CE20" s="1">
-        <v>1963.640000</v>
+        <v>1963.64</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1551.920000</v>
+        <v>-1551.92</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>3610.888820</v>
+        <v>3610.8888200000001</v>
       </c>
       <c r="B21" s="1">
-        <v>1.003025</v>
+        <v>1.0030250000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>898.326000</v>
+        <v>898.32600000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>-190.312000</v>
+        <v>-190.31200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>3621.358871</v>
+        <v>3621.3588709999999</v>
       </c>
       <c r="G21" s="1">
         <v>1.005933</v>
       </c>
       <c r="H21" s="1">
-        <v>915.877000</v>
+        <v>915.87699999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-162.304000</v>
+        <v>-162.304</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>3631.773368</v>
+        <v>3631.7733680000001</v>
       </c>
       <c r="L21" s="1">
         <v>1.008826</v>
       </c>
       <c r="M21" s="1">
-        <v>939.187000</v>
+        <v>939.18700000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.420000</v>
+        <v>-117.42</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>3642.602026</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.011834</v>
+        <v>1.0118339999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>946.076000</v>
+        <v>946.07600000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.633000</v>
+        <v>-102.633</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>3653.054717</v>
@@ -5424,88 +5840,88 @@
         <v>1.014737</v>
       </c>
       <c r="W21" s="1">
-        <v>952.910000</v>
+        <v>952.91</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.206300</v>
+        <v>-89.206299999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>3663.576352</v>
       </c>
       <c r="AA21" s="1">
-        <v>1.017660</v>
+        <v>1.01766</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.469000</v>
+        <v>960.46900000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.810900</v>
+        <v>-79.810900000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>3674.051856</v>
       </c>
       <c r="AF21" s="1">
-        <v>1.020570</v>
+        <v>1.02057</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.557000</v>
+        <v>965.55700000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.376400</v>
+        <v>-79.376400000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>3684.954914</v>
+        <v>3684.9549139999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>1.023599</v>
+        <v>1.0235989999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.608000</v>
+        <v>973.60799999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-86.942700</v>
+        <v>-86.942700000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>3695.489160</v>
+        <v>3695.4891600000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>1.026525</v>
+        <v>1.0265249999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.873000</v>
+        <v>982.87300000000005</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.534000</v>
+        <v>-101.53400000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>3706.285862</v>
+        <v>3706.2858620000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>1.029524</v>
+        <v>1.0295240000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.254000</v>
+        <v>994.25400000000002</v>
       </c>
       <c r="AW21" s="1">
-        <v>-122.596000</v>
+        <v>-122.596</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>3717.234551</v>
@@ -5514,300 +5930,300 @@
         <v>1.032565</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.850000</v>
+        <v>1003.85</v>
       </c>
       <c r="BB21" s="1">
-        <v>-140.956000</v>
+        <v>-140.95599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>3728.222425</v>
+        <v>3728.2224249999999</v>
       </c>
       <c r="BE21" s="1">
         <v>1.035617</v>
       </c>
       <c r="BF21" s="1">
-        <v>1048.530000</v>
+        <v>1048.53</v>
       </c>
       <c r="BG21" s="1">
-        <v>-223.971000</v>
+        <v>-223.971</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>3738.868059</v>
+        <v>3738.8680589999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>1.038574</v>
+        <v>1.0385740000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1126.470000</v>
+        <v>1126.47</v>
       </c>
       <c r="BL21" s="1">
-        <v>-357.495000</v>
+        <v>-357.495</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>3749.143181</v>
+        <v>3749.1431809999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>1.041429</v>
+        <v>1.0414289999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1255.510000</v>
+        <v>1255.51</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-564.341000</v>
+        <v>-564.34100000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>3759.752607</v>
+        <v>3759.7526069999999</v>
       </c>
       <c r="BT21" s="1">
         <v>1.044376</v>
       </c>
       <c r="BU21" s="1">
-        <v>1400.610000</v>
+        <v>1400.61</v>
       </c>
       <c r="BV21" s="1">
-        <v>-785.214000</v>
+        <v>-785.21400000000006</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>3770.584273</v>
+        <v>3770.5842729999999</v>
       </c>
       <c r="BY21" s="1">
         <v>1.047385</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1560.730000</v>
+        <v>1560.73</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1015.580000</v>
+        <v>-1015.58</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>3783.429135</v>
+        <v>3783.4291349999999</v>
       </c>
       <c r="CD21" s="1">
         <v>1.050953</v>
       </c>
       <c r="CE21" s="1">
-        <v>1964.240000</v>
+        <v>1964.24</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1553.340000</v>
+        <v>-1553.34</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>3611.180468</v>
       </c>
       <c r="B22" s="1">
-        <v>1.003106</v>
+        <v>1.0031060000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>898.367000</v>
+        <v>898.36699999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-190.388000</v>
+        <v>-190.38800000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>3621.638118</v>
+        <v>3621.6381179999998</v>
       </c>
       <c r="G22" s="1">
         <v>1.006011</v>
       </c>
       <c r="H22" s="1">
-        <v>915.877000</v>
+        <v>915.87699999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-162.259000</v>
+        <v>-162.25899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>3632.117096</v>
+        <v>3632.1170959999999</v>
       </c>
       <c r="L22" s="1">
         <v>1.008921</v>
       </c>
       <c r="M22" s="1">
-        <v>939.087000</v>
+        <v>939.08699999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.501000</v>
+        <v>-117.501</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>3642.951737</v>
+        <v>3642.9517369999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>1.011931</v>
+        <v>1.0119309999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>946.068000</v>
+        <v>946.06799999999998</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.637000</v>
+        <v>-102.637</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>3653.399436</v>
+        <v>3653.3994360000002</v>
       </c>
       <c r="V22" s="1">
-        <v>1.014833</v>
+        <v>1.0148330000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>952.913000</v>
+        <v>952.91300000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.150900</v>
+        <v>-89.150899999999993</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>3664.271245</v>
+        <v>3664.2712449999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>1.017853</v>
+        <v>1.0178529999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.413000</v>
+        <v>960.41300000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.822400</v>
+        <v>-79.822400000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>3674.743775</v>
+        <v>3674.7437749999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.020762</v>
+        <v>1.0207619999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.561000</v>
+        <v>965.56100000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.354100</v>
+        <v>-79.354100000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>3685.304098</v>
+        <v>3685.3040980000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>1.023696</v>
+        <v>1.0236959999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.622000</v>
+        <v>973.62199999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-86.927000</v>
+        <v>-86.927000000000007</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>3695.851028</v>
       </c>
       <c r="AP22" s="1">
-        <v>1.026625</v>
+        <v>1.0266249999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.882000</v>
+        <v>982.88199999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.509000</v>
+        <v>-101.509</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>3706.647974</v>
       </c>
       <c r="AU22" s="1">
-        <v>1.029624</v>
+        <v>1.0296240000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.257000</v>
+        <v>994.25699999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-122.592000</v>
+        <v>-122.592</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>3717.892283</v>
+        <v>3717.8922830000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>1.032748</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB22" s="1">
-        <v>-140.951000</v>
+        <v>-140.95099999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>3728.675272</v>
+        <v>3728.6752719999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>1.035743</v>
+        <v>1.0357430000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1048.530000</v>
+        <v>1048.53</v>
       </c>
       <c r="BG22" s="1">
-        <v>-223.969000</v>
+        <v>-223.96899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>3739.310987</v>
+        <v>3739.3109869999998</v>
       </c>
       <c r="BJ22" s="1">
         <v>1.038697</v>
       </c>
       <c r="BK22" s="1">
-        <v>1126.500000</v>
+        <v>1126.5</v>
       </c>
       <c r="BL22" s="1">
-        <v>-357.513000</v>
+        <v>-357.51299999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>3749.551027</v>
@@ -5816,90 +6232,90 @@
         <v>1.041542</v>
       </c>
       <c r="BP22" s="1">
-        <v>1255.530000</v>
+        <v>1255.53</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-564.409000</v>
+        <v>-564.40899999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>3760.179198</v>
+        <v>3760.1791979999998</v>
       </c>
       <c r="BT22" s="1">
         <v>1.044494</v>
       </c>
       <c r="BU22" s="1">
-        <v>1400.750000</v>
+        <v>1400.75</v>
       </c>
       <c r="BV22" s="1">
-        <v>-785.117000</v>
+        <v>-785.11699999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>3771.018736</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.047505</v>
+        <v>1.0475049999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1560.700000</v>
+        <v>1560.7</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1015.760000</v>
+        <v>-1015.76</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>3783.945503</v>
+        <v>3783.9455029999999</v>
       </c>
       <c r="CD22" s="1">
         <v>1.051096</v>
       </c>
       <c r="CE22" s="1">
-        <v>1965.850000</v>
+        <v>1965.85</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1552.540000</v>
+        <v>-1552.54</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>3611.521715</v>
+        <v>3611.5217149999999</v>
       </c>
       <c r="B23" s="1">
-        <v>1.003200</v>
+        <v>1.0032000000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>898.365000</v>
+        <v>898.36500000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-190.321000</v>
+        <v>-190.321</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>3621.978374</v>
+        <v>3621.9783739999998</v>
       </c>
       <c r="G23" s="1">
         <v>1.006105</v>
       </c>
       <c r="H23" s="1">
-        <v>915.813000</v>
+        <v>915.81299999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-162.361000</v>
+        <v>-162.36099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>3632.466312</v>
@@ -5908,13 +6324,13 @@
         <v>1.009018</v>
       </c>
       <c r="M23" s="1">
-        <v>938.968000</v>
+        <v>938.96799999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.379000</v>
+        <v>-117.379</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>3643.647594</v>
@@ -5923,13 +6339,13 @@
         <v>1.012124</v>
       </c>
       <c r="R23" s="1">
-        <v>946.019000</v>
+        <v>946.01900000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.591000</v>
+        <v>-102.59099999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>3654.081964</v>
@@ -5938,28 +6354,28 @@
         <v>1.015023</v>
       </c>
       <c r="W23" s="1">
-        <v>952.857000</v>
+        <v>952.85699999999997</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.196300</v>
+        <v>-89.196299999999994</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>3664.621917</v>
+        <v>3664.6219169999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>1.017951</v>
+        <v>1.0179510000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.467000</v>
+        <v>960.46699999999998</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.797500</v>
+        <v>-79.797499999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>3675.087008</v>
@@ -5968,13 +6384,13 @@
         <v>1.020858</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.574000</v>
+        <v>965.57399999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.381300</v>
+        <v>-79.381299999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>3685.654305</v>
@@ -5983,28 +6399,28 @@
         <v>1.023793</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.631000</v>
+        <v>973.63099999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-86.910200</v>
+        <v>-86.910200000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>3696.514712</v>
+        <v>3696.5147120000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>1.026810</v>
+        <v>1.02681</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.862000</v>
+        <v>982.86199999999997</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.519000</v>
+        <v>-101.51900000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>3707.312582</v>
@@ -6013,378 +6429,378 @@
         <v>1.029809</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.253000</v>
+        <v>994.25300000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-122.599000</v>
+        <v>-122.599</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>3718.346098</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1.032874</v>
+        <v>1.0328740000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB23" s="1">
-        <v>-140.959000</v>
+        <v>-140.959</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>3729.035386</v>
       </c>
       <c r="BE23" s="1">
-        <v>1.035843</v>
+        <v>1.0358430000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1048.520000</v>
+        <v>1048.52</v>
       </c>
       <c r="BG23" s="1">
-        <v>-223.959000</v>
+        <v>-223.959</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>3739.711276</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1.038809</v>
+        <v>1.0388090000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1126.450000</v>
+        <v>1126.45</v>
       </c>
       <c r="BL23" s="1">
-        <v>-357.479000</v>
+        <v>-357.47899999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>3749.945746</v>
+        <v>3749.9457459999999</v>
       </c>
       <c r="BO23" s="1">
         <v>1.041652</v>
       </c>
       <c r="BP23" s="1">
-        <v>1255.550000</v>
+        <v>1255.55</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-564.352000</v>
+        <v>-564.35199999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>3760.599946</v>
+        <v>3760.5999459999998</v>
       </c>
       <c r="BT23" s="1">
         <v>1.044611</v>
       </c>
       <c r="BU23" s="1">
-        <v>1400.800000</v>
+        <v>1400.8</v>
       </c>
       <c r="BV23" s="1">
-        <v>-785.049000</v>
+        <v>-785.04899999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>3771.474076</v>
       </c>
       <c r="BY23" s="1">
-        <v>1.047632</v>
+        <v>1.0476319999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1560.700000</v>
+        <v>1560.7</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1015.780000</v>
+        <v>-1015.78</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>3784.464562</v>
+        <v>3784.4645620000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>1.051240</v>
+        <v>1.05124</v>
       </c>
       <c r="CE23" s="1">
-        <v>1964.930000</v>
+        <v>1964.93</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1553.250000</v>
+        <v>-1553.25</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>3611.860484</v>
+        <v>3611.8604839999998</v>
       </c>
       <c r="B24" s="1">
         <v>1.003295</v>
       </c>
       <c r="C24" s="1">
-        <v>898.458000</v>
+        <v>898.45799999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>-190.365000</v>
+        <v>-190.36500000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>3622.327557</v>
+        <v>3622.3275570000001</v>
       </c>
       <c r="G24" s="1">
         <v>1.006202</v>
       </c>
       <c r="H24" s="1">
-        <v>915.745000</v>
+        <v>915.745</v>
       </c>
       <c r="I24" s="1">
-        <v>-162.182000</v>
+        <v>-162.18199999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>3633.160679</v>
+        <v>3633.1606790000001</v>
       </c>
       <c r="L24" s="1">
-        <v>1.009211</v>
+        <v>1.0092110000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>939.162000</v>
+        <v>939.16200000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.335000</v>
+        <v>-117.33499999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>3643.997800</v>
+        <v>3643.9978000000001</v>
       </c>
       <c r="Q24" s="1">
         <v>1.012222</v>
       </c>
       <c r="R24" s="1">
-        <v>946.035000</v>
+        <v>946.03499999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.572000</v>
+        <v>-102.572</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>3654.428171</v>
       </c>
       <c r="V24" s="1">
-        <v>1.015119</v>
+        <v>1.0151190000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>952.788000</v>
+        <v>952.78800000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.210600</v>
+        <v>-89.210599999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>3664.970108</v>
       </c>
       <c r="AA24" s="1">
-        <v>1.018047</v>
+        <v>1.0180469999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.472000</v>
+        <v>960.47199999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.787500</v>
+        <v>-79.787499999999994</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>3675.725393</v>
+        <v>3675.7253930000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>1.021035</v>
+        <v>1.0210349999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.536000</v>
+        <v>965.53599999999994</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.380900</v>
+        <v>-79.380899999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>3686.303536</v>
+        <v>3686.3035359999999</v>
       </c>
       <c r="AK24" s="1">
         <v>1.023973</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.608000</v>
+        <v>973.60799999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-86.923800</v>
+        <v>-86.9238</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>3696.956610</v>
+        <v>3696.9566100000002</v>
       </c>
       <c r="AP24" s="1">
         <v>1.026932</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.876000</v>
+        <v>982.87599999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.505000</v>
+        <v>-101.505</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>3707.779813</v>
+        <v>3707.7798130000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>1.029939</v>
+        <v>1.0299389999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.267000</v>
+        <v>994.26700000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-122.592000</v>
+        <v>-122.592</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>3718.703863</v>
+        <v>3718.7038630000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1.032973</v>
+        <v>1.0329729999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB24" s="1">
-        <v>-140.946000</v>
+        <v>-140.946</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>3729.394968</v>
+        <v>3729.3949680000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>1.035943</v>
+        <v>1.0359430000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG24" s="1">
-        <v>-223.994000</v>
+        <v>-223.994</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>3740.090697</v>
+        <v>3740.0906970000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>1.038914</v>
+        <v>1.0389139999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1126.450000</v>
+        <v>1126.45</v>
       </c>
       <c r="BL24" s="1">
-        <v>-357.477000</v>
+        <v>-357.47699999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>3750.379707</v>
+        <v>3750.3797070000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>1.041772</v>
+        <v>1.0417719999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1255.530000</v>
+        <v>1255.53</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-564.399000</v>
+        <v>-564.399</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>3761.022893</v>
+        <v>3761.0228929999998</v>
       </c>
       <c r="BT24" s="1">
         <v>1.044729</v>
       </c>
       <c r="BU24" s="1">
-        <v>1400.960000</v>
+        <v>1400.96</v>
       </c>
       <c r="BV24" s="1">
-        <v>-785.119000</v>
+        <v>-785.11900000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>3771.923471</v>
+        <v>3771.9234710000001</v>
       </c>
       <c r="BY24" s="1">
         <v>1.047757</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1560.700000</v>
+        <v>1560.7</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1015.630000</v>
+        <v>-1015.63</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>3785.017358</v>
+        <v>3785.0173580000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>1.051394</v>
+        <v>1.0513939999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1964.090000</v>
+        <v>1964.09</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1552.980000</v>
+        <v>-1552.98</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>3612.545967</v>
       </c>
@@ -6392,465 +6808,465 @@
         <v>1.003485</v>
       </c>
       <c r="C25" s="1">
-        <v>898.306000</v>
+        <v>898.30600000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-190.399000</v>
+        <v>-190.399</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>3623.014019</v>
+        <v>3623.0140190000002</v>
       </c>
       <c r="G25" s="1">
-        <v>1.006393</v>
+        <v>1.0063930000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>915.942000</v>
+        <v>915.94200000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-162.471000</v>
+        <v>-162.471</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>3633.507382</v>
+        <v>3633.5073819999998</v>
       </c>
       <c r="L25" s="1">
-        <v>1.009308</v>
+        <v>1.0093080000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>939.180000</v>
+        <v>939.18</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.366000</v>
+        <v>-117.366</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>3644.346983</v>
+        <v>3644.3469829999999</v>
       </c>
       <c r="Q25" s="1">
         <v>1.012319</v>
       </c>
       <c r="R25" s="1">
-        <v>946.077000</v>
+        <v>946.077</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.576000</v>
+        <v>-102.57599999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>3654.771866</v>
       </c>
       <c r="V25" s="1">
-        <v>1.015214</v>
+        <v>1.0152140000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>952.954000</v>
+        <v>952.95399999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.182500</v>
+        <v>-89.182500000000005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>3665.616427</v>
+        <v>3665.6164269999999</v>
       </c>
       <c r="AA25" s="1">
         <v>1.018227</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.465000</v>
+        <v>960.46500000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.820900</v>
+        <v>-79.820899999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>3676.115742</v>
       </c>
       <c r="AF25" s="1">
-        <v>1.021143</v>
+        <v>1.0211429999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.548000</v>
+        <v>965.548</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.332200</v>
+        <v>-79.3322</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>3686.694384</v>
+        <v>3686.6943839999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>1.024082</v>
+        <v>1.0240819999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.649000</v>
+        <v>973.649</v>
       </c>
       <c r="AM25" s="1">
-        <v>-86.922600</v>
+        <v>-86.922600000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>3697.319681</v>
+        <v>3697.3196809999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>1.027033</v>
+        <v>1.0270330000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.887000</v>
+        <v>982.88699999999994</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.507000</v>
+        <v>-101.50700000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>3708.141929</v>
+        <v>3708.1419289999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>1.030039</v>
+        <v>1.0300389999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.248000</v>
+        <v>994.24800000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-122.605000</v>
+        <v>-122.605</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>3719.060325</v>
+        <v>3719.0603249999999</v>
       </c>
       <c r="AZ25" s="1">
         <v>1.033072</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.800000</v>
+        <v>1003.8</v>
       </c>
       <c r="BB25" s="1">
-        <v>-140.933000</v>
+        <v>-140.93299999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>3729.803671</v>
+        <v>3729.8036710000001</v>
       </c>
       <c r="BE25" s="1">
         <v>1.036057</v>
       </c>
       <c r="BF25" s="1">
-        <v>1048.520000</v>
+        <v>1048.52</v>
       </c>
       <c r="BG25" s="1">
-        <v>-223.962000</v>
+        <v>-223.96199999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>3740.507373</v>
+        <v>3740.5073729999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>1.039030</v>
+        <v>1.0390299999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1126.450000</v>
+        <v>1126.45</v>
       </c>
       <c r="BL25" s="1">
-        <v>-357.495000</v>
+        <v>-357.495</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>3750.765099</v>
+        <v>3750.7650990000002</v>
       </c>
       <c r="BO25" s="1">
         <v>1.041879</v>
       </c>
       <c r="BP25" s="1">
-        <v>1255.560000</v>
+        <v>1255.56</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-564.411000</v>
+        <v>-564.41099999999994</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>3761.446476</v>
+        <v>3761.4464760000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>1.044846</v>
+        <v>1.0448459999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1401.100000</v>
+        <v>1401.1</v>
       </c>
       <c r="BV25" s="1">
-        <v>-785.114000</v>
+        <v>-785.11400000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>3772.346030</v>
+        <v>3772.3460300000002</v>
       </c>
       <c r="BY25" s="1">
         <v>1.047874</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1560.660000</v>
+        <v>1560.66</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1015.700000</v>
+        <v>-1015.7</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>3785.547892</v>
       </c>
       <c r="CD25" s="1">
-        <v>1.051541</v>
+        <v>1.0515410000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1965.280000</v>
+        <v>1965.28</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1552.970000</v>
+        <v>-1552.97</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>3612.888722</v>
+        <v>3612.8887220000001</v>
       </c>
       <c r="B26" s="1">
-        <v>1.003580</v>
+        <v>1.0035799999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>898.345000</v>
+        <v>898.34500000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>-190.125000</v>
+        <v>-190.125</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>3623.358739</v>
+        <v>3623.3587389999998</v>
       </c>
       <c r="G26" s="1">
         <v>1.006489</v>
       </c>
       <c r="H26" s="1">
-        <v>915.734000</v>
+        <v>915.73400000000004</v>
       </c>
       <c r="I26" s="1">
-        <v>-162.378000</v>
+        <v>-162.37799999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>3633.850613</v>
+        <v>3633.8506130000001</v>
       </c>
       <c r="L26" s="1">
-        <v>1.009403</v>
+        <v>1.0094030000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>939.133000</v>
+        <v>939.13300000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.461000</v>
+        <v>-117.461</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>3645.004679</v>
+        <v>3645.0046790000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.012501</v>
+        <v>1.0125010000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>946.110000</v>
+        <v>946.11</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.599000</v>
+        <v>-102.599</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>3655.420138</v>
       </c>
       <c r="V26" s="1">
-        <v>1.015394</v>
+        <v>1.0153939999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>952.866000</v>
+        <v>952.86599999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.239000</v>
+        <v>-89.239000000000004</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>3666.014684</v>
+        <v>3666.0146840000002</v>
       </c>
       <c r="AA26" s="1">
         <v>1.018337</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.493000</v>
+        <v>960.49300000000005</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.918700</v>
+        <v>-79.918700000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>3676.460461</v>
+        <v>3676.4604610000001</v>
       </c>
       <c r="AF26" s="1">
         <v>1.021239</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.548000</v>
+        <v>965.548</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.379900</v>
+        <v>-79.379900000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>3687.045585</v>
+        <v>3687.0455849999998</v>
       </c>
       <c r="AK26" s="1">
         <v>1.024179</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.602000</v>
+        <v>973.60199999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-86.938100</v>
+        <v>-86.938100000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>3697.679777</v>
+        <v>3697.6797769999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>1.027133</v>
+        <v>1.0271330000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.883000</v>
+        <v>982.88300000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.518000</v>
+        <v>-101.518</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>3708.497029</v>
+        <v>3708.4970290000001</v>
       </c>
       <c r="AU26" s="1">
         <v>1.030138</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.264000</v>
+        <v>994.26400000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-122.613000</v>
+        <v>-122.613</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>3719.476501</v>
+        <v>3719.4765010000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>1.033188</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB26" s="1">
-        <v>-140.943000</v>
+        <v>-140.94300000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>3730.116646</v>
+        <v>3730.1166459999999</v>
       </c>
       <c r="BE26" s="1">
         <v>1.036144</v>
       </c>
       <c r="BF26" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG26" s="1">
-        <v>-223.972000</v>
+        <v>-223.97200000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>3740.865449</v>
+        <v>3740.8654489999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>1.039129</v>
       </c>
       <c r="BK26" s="1">
-        <v>1126.480000</v>
+        <v>1126.48</v>
       </c>
       <c r="BL26" s="1">
-        <v>-357.500000</v>
+        <v>-357.5</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>3751.185243</v>
+        <v>3751.1852429999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>1.041996</v>
+        <v>1.0419959999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1255.510000</v>
+        <v>1255.51</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-564.382000</v>
+        <v>-564.38199999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>3761.860604</v>
@@ -6859,28 +7275,28 @@
         <v>1.044961</v>
       </c>
       <c r="BU26" s="1">
-        <v>1401.180000</v>
+        <v>1401.18</v>
       </c>
       <c r="BV26" s="1">
-        <v>-785.338000</v>
+        <v>-785.33799999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>3772.768126</v>
+        <v>3772.7681259999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>1.047991</v>
+        <v>1.0479909999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1560.650000</v>
+        <v>1560.65</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1015.760000</v>
+        <v>-1015.76</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>3786.065372</v>
@@ -6889,15 +7305,16 @@
         <v>1.051685</v>
       </c>
       <c r="CE26" s="1">
-        <v>1965.120000</v>
+        <v>1965.12</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1551.480000</v>
+        <v>-1551.48</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>